--- a/data/trans_orig/P74A-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P74A-Edad-trans_orig.xlsx
@@ -746,7 +746,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5088</v>
+        <v>4995</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01855776080649598</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.09901503640256056</v>
+        <v>0.09722086759354748</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>3806</v>
+        <v>4227</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01015058989331607</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.05222201741934862</v>
+        <v>0.0580014723338978</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>6812</v>
+        <v>5737</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01362684616826417</v>
@@ -797,7 +797,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05481526164151725</v>
+        <v>0.04616302772587946</v>
       </c>
     </row>
     <row r="5">
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10657</v>
+        <v>9756</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.05252120026409157</v>
@@ -873,7 +873,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.207410939577073</v>
+        <v>0.1898670338179934</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -898,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>10450</v>
+        <v>9757</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02171683600480022</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.08409643054785021</v>
+        <v>0.07851759030256072</v>
       </c>
     </row>
     <row r="7">
@@ -924,19 +924,19 @@
         <v>20105</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>13464</v>
+        <v>13353</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>27498</v>
+        <v>27821</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3912808325186077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2620371483457232</v>
+        <v>0.2598796830221899</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5351671858393297</v>
+        <v>0.5414476007254936</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -948,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>3743</v>
+        <v>7248</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01209113130673212</v>
@@ -957,7 +957,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05135531364778644</v>
+        <v>0.09944514885827312</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>20</v>
@@ -966,19 +966,19 @@
         <v>20986</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>13083</v>
+        <v>12872</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>29315</v>
+        <v>30314</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1688811611331749</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1052829558635653</v>
+        <v>0.1035825283269246</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2359072094555851</v>
+        <v>0.2439413558324617</v>
       </c>
     </row>
     <row r="8">
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>4886</v>
+        <v>5048</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01348330031329145</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.06704357620120809</v>
+        <v>0.06926483859667018</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>4972</v>
+        <v>4574</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.00790813028223987</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04001425425409295</v>
+        <v>0.03680492209446057</v>
       </c>
     </row>
     <row r="9">
@@ -1061,7 +1061,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>8715</v>
+        <v>8928</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03553891749293855</v>
@@ -1070,7 +1070,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1696015613203894</v>
+        <v>0.1737570379526676</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -1082,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4519</v>
+        <v>5410</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01454269252734476</v>
@@ -1091,7 +1091,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06200897504221033</v>
+        <v>0.07422454856134755</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>2</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9899</v>
+        <v>10759</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02322435958759733</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07966231114692829</v>
+        <v>0.08657718020008981</v>
       </c>
     </row>
     <row r="10">
@@ -1129,19 +1129,19 @@
         <v>8433</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4154</v>
+        <v>3748</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>14519</v>
+        <v>14227</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1641108188468584</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.08084799488775601</v>
+        <v>0.07294385071178612</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2825635345537944</v>
+        <v>0.2768722011436936</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1150,19 +1150,19 @@
         <v>2790</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>893</v>
+        <v>871</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7525</v>
+        <v>7821</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03827913406016469</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01225043626195325</v>
+        <v>0.01194455834722755</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.103240676654551</v>
+        <v>0.1073114289687335</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>12</v>
@@ -1171,19 +1171,19 @@
         <v>11222</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>6367</v>
+        <v>5955</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>18441</v>
+        <v>18102</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.09030890582813107</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.05123778689698134</v>
+        <v>0.04791810546971816</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.148402189975761</v>
+        <v>0.1456679072197742</v>
       </c>
     </row>
     <row r="11">
@@ -1200,19 +1200,19 @@
         <v>17367</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11709</v>
+        <v>11334</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>24686</v>
+        <v>24030</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3379904700710079</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2278688166862789</v>
+        <v>0.2205828807823581</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4804401244951783</v>
+        <v>0.4676690486842901</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>66</v>
@@ -1221,19 +1221,19 @@
         <v>66430</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>60488</v>
+        <v>60595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>70230</v>
+        <v>70216</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9114531518991509</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8299201168125881</v>
+        <v>0.831383042171159</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9635919395335365</v>
+        <v>0.9633946223294469</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>85</v>
@@ -1242,19 +1242,19 @@
         <v>83797</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>72616</v>
+        <v>73526</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>93421</v>
+        <v>93901</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6743337609957923</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5843512877845829</v>
+        <v>0.5916760489888998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7517738620729257</v>
+        <v>0.7556406578978438</v>
       </c>
     </row>
     <row r="12">
@@ -1346,19 +1346,19 @@
         <v>3782</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>879</v>
+        <v>888</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>10698</v>
+        <v>13002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009723008574324959</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002259933643101346</v>
+        <v>0.002283541060384474</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02749977382509927</v>
+        <v>0.03342389184031325</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -1380,19 +1380,19 @@
         <v>3782</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>878</v>
+        <v>886</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>11121</v>
+        <v>12254</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004670918737317662</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001083980241189784</v>
+        <v>0.001094255628405666</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01373430235954705</v>
+        <v>0.01513270490205119</v>
       </c>
     </row>
     <row r="14">
@@ -1456,19 +1456,19 @@
         <v>12467</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>6087</v>
+        <v>6145</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>24545</v>
+        <v>22287</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03204949094544608</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01564789711222371</v>
+        <v>0.0157956524323757</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.06309754508063264</v>
+        <v>0.05729360951325321</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>0</v>
@@ -1490,19 +1490,19 @@
         <v>12467</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>6143</v>
+        <v>6128</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>23476</v>
+        <v>22908</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01539652738493755</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.007585887662448476</v>
+        <v>0.007568034529421103</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02899170384658963</v>
+        <v>0.02828984648896211</v>
       </c>
     </row>
     <row r="16">
@@ -1519,19 +1519,19 @@
         <v>120176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>102670</v>
+        <v>103654</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>141755</v>
+        <v>142952</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3089322955244767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2639293954740705</v>
+        <v>0.2664610651708647</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3644052506365772</v>
+        <v>0.3674827504558432</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4983</v>
+        <v>5475</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.002335665513077412</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0118435550038233</v>
+        <v>0.01301215486114875</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>119</v>
@@ -1561,19 +1561,19 @@
         <v>121159</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>102463</v>
+        <v>103970</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>142022</v>
+        <v>143826</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1496242267615304</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1265363430295103</v>
+        <v>0.1283977702289389</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1753895362274578</v>
+        <v>0.1776170282319705</v>
       </c>
     </row>
     <row r="17">
@@ -1593,7 +1593,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>7869</v>
+        <v>7975</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.004039672215036403</v>
@@ -1602,7 +1602,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.02022960776765984</v>
+        <v>0.02050195840993019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>0</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7816</v>
+        <v>8835</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.001940652473727259</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.009651720091538351</v>
+        <v>0.01091059780772946</v>
       </c>
     </row>
     <row r="18">
@@ -1700,19 +1700,19 @@
         <v>29878</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>19884</v>
+        <v>20099</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>41702</v>
+        <v>41492</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.07680754706963923</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05111595767062558</v>
+        <v>0.05166729416694617</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1072017651203212</v>
+        <v>0.1066616221037329</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>12</v>
@@ -1721,19 +1721,19 @@
         <v>11600</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>5871</v>
+        <v>6401</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>19808</v>
+        <v>19229</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0275699828600926</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.01395345243271439</v>
+        <v>0.01521294950100277</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04707727921604083</v>
+        <v>0.04570177442569952</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>42</v>
@@ -1742,19 +1742,19 @@
         <v>41478</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>30653</v>
+        <v>30264</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>54279</v>
+        <v>56566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.05122363486381101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0378542126921667</v>
+        <v>0.03737430853188337</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.0670309660500548</v>
+        <v>0.0698553000306793</v>
       </c>
     </row>
     <row r="20">
@@ -1771,19 +1771,19 @@
         <v>221129</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>200322</v>
+        <v>200185</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238970</v>
+        <v>241535</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5684479856710767</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5149604891071722</v>
+        <v>0.5146083477646087</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6143112368032495</v>
+        <v>0.6209055173760922</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>382</v>
@@ -1792,19 +1792,19 @@
         <v>408166</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>399271</v>
+        <v>400019</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>413936</v>
+        <v>413900</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.97009435162683</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9489530796747028</v>
+        <v>0.9507314306036589</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9838073911051732</v>
+        <v>0.9837225703118395</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>585</v>
@@ -1813,19 +1813,19 @@
         <v>629295</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>603703</v>
+        <v>603483</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>650540</v>
+        <v>650399</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7771440397786761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7455400958060646</v>
+        <v>0.7452681718834528</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8033806032269667</v>
+        <v>0.8032062797503524</v>
       </c>
     </row>
     <row r="21">
@@ -1917,19 +1917,19 @@
         <v>2894</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>930</v>
+        <v>938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>8314</v>
+        <v>8638</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.005654510890715452</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.001817645499445386</v>
+        <v>0.001833729457352861</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01624480938273359</v>
+        <v>0.01687811950986795</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -1941,16 +1941,16 @@
         <v>981</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>10459</v>
+        <v>9315</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.006227950727241328</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.001704394782028377</v>
+        <v>0.001705241695044359</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01817202056193181</v>
+        <v>0.0161843754967697</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -1959,19 +1959,19 @@
         <v>6478</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1967</v>
+        <v>2595</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>13278</v>
+        <v>13373</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.00595804539317948</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001809144170735175</v>
+        <v>0.002386653017544855</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01221144946857326</v>
+        <v>0.01229903998638641</v>
       </c>
     </row>
     <row r="23">
@@ -2001,19 +2001,19 @@
         <v>4097</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1022</v>
+        <v>1024</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>10393</v>
+        <v>10855</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.007119017517413675</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.001775651379892027</v>
+        <v>0.00177980864198046</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.01805672001121188</v>
+        <v>0.01886020917900868</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>4</v>
@@ -2022,19 +2022,19 @@
         <v>4097</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1005</v>
+        <v>1140</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>9467</v>
+        <v>9438</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.003768254841296414</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0009238532426768141</v>
+        <v>0.001047973011119557</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.008706939118734542</v>
+        <v>0.008679572113111152</v>
       </c>
     </row>
     <row r="24">
@@ -2054,7 +2054,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6115</v>
+        <v>5130</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.001991347574515167</v>
@@ -2063,7 +2063,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.0119476140335472</v>
+        <v>0.01002323446814964</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2088,7 +2088,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4759</v>
+        <v>4121</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.0009372828640385448</v>
@@ -2097,7 +2097,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.004377067888035486</v>
+        <v>0.00378978598333452</v>
       </c>
     </row>
     <row r="25">
@@ -2114,19 +2114,19 @@
         <v>236029</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>212943</v>
+        <v>211699</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>258310</v>
+        <v>259232</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4611867926752043</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4160780270870683</v>
+        <v>0.4136480819611486</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.5047223269618886</v>
+        <v>0.5065240799632083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2148,19 +2148,19 @@
         <v>236029</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>211563</v>
+        <v>206728</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>264946</v>
+        <v>263156</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2170703313813054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1945697078944646</v>
+        <v>0.1901230561930918</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2436646643447139</v>
+        <v>0.2420188327251057</v>
       </c>
     </row>
     <row r="26">
@@ -2190,19 +2190,19 @@
         <v>9880</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>5095</v>
+        <v>5054</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>17609</v>
+        <v>17819</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01716566722616051</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.008853011956664117</v>
+        <v>0.008780469391103145</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03059490963139363</v>
+        <v>0.03095995010679754</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -2211,19 +2211,19 @@
         <v>9880</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4129</v>
+        <v>4674</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>18747</v>
+        <v>18206</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.009086170735054223</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.003797384820459196</v>
+        <v>0.004298981253671022</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01724089329984485</v>
+        <v>0.01674342843609027</v>
       </c>
     </row>
     <row r="27">
@@ -2287,19 +2287,19 @@
         <v>23411</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>15072</v>
+        <v>14338</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>35183</v>
+        <v>34412</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.0457443518073045</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.02945072386249648</v>
+        <v>0.02801534417462599</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.0687449836018445</v>
+        <v>0.06723911612361436</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>29</v>
@@ -2308,19 +2308,19 @@
         <v>29949</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>20831</v>
+        <v>20088</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>42042</v>
+        <v>40354</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.05203467819651635</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.03619235765158247</v>
+        <v>0.0349019560135983</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.07304696806584007</v>
+        <v>0.07011295039675056</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>50</v>
@@ -2329,19 +2329,19 @@
         <v>53360</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>40480</v>
+        <v>40015</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>70256</v>
+        <v>69638</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.04907396194121714</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.03722834853107448</v>
+        <v>0.03680086682517487</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.06461257218490278</v>
+        <v>0.06404443761884551</v>
       </c>
     </row>
     <row r="29">
@@ -2358,19 +2358,19 @@
         <v>248433</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>226356</v>
+        <v>225080</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>273098</v>
+        <v>272719</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4854229970522606</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4422856340951082</v>
+        <v>0.4397939519620527</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5336182994377401</v>
+        <v>0.5328775768214483</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>508</v>
@@ -2379,19 +2379,19 @@
         <v>528042</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>511919</v>
+        <v>513822</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>539726</v>
+        <v>540378</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.9174526863326682</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8894392752753707</v>
+        <v>0.8927463034565571</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.9377542621025658</v>
+        <v>0.9388859544764384</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>749</v>
@@ -2400,19 +2400,19 @@
         <v>776475</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>745956</v>
+        <v>746342</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>805082</v>
+        <v>810253</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7141059528439089</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6860391625773269</v>
+        <v>0.6863940869438714</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.7404159094007603</v>
+        <v>0.7451715868357437</v>
       </c>
     </row>
     <row r="30">
@@ -2517,19 +2517,19 @@
         <v>7346</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>3066</v>
+        <v>3140</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>14470</v>
+        <v>14281</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01788469047705665</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.007465001082294469</v>
+        <v>0.007645054713787648</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.03523077577670663</v>
+        <v>0.03477133825725973</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>7</v>
@@ -2538,19 +2538,19 @@
         <v>7346</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3125</v>
+        <v>3001</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>14079</v>
+        <v>14987</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.008572599671357458</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.003646932313146634</v>
+        <v>0.003502354104053551</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01643079657724411</v>
+        <v>0.01749047357575571</v>
       </c>
     </row>
     <row r="32">
@@ -2567,19 +2567,19 @@
         <v>3554</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>915</v>
+        <v>1062</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11207</v>
+        <v>10114</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.007965863864298348</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.002050677893356156</v>
+        <v>0.00238060839744058</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02511868925672761</v>
+        <v>0.02266899494333155</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -2588,19 +2588,19 @@
         <v>4794</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>1896</v>
+        <v>1761</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11666</v>
+        <v>10592</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01167289990918143</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004616793731115418</v>
+        <v>0.004287937215606906</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02840419925992748</v>
+        <v>0.02578818060124088</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -2609,19 +2609,19 @@
         <v>8348</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3671</v>
+        <v>3925</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>16499</v>
+        <v>16547</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.009742743146656773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004283699198701876</v>
+        <v>0.00458025725342108</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01925481882290931</v>
+        <v>0.01931073044997962</v>
       </c>
     </row>
     <row r="33">
@@ -2685,19 +2685,19 @@
         <v>271981</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>250208</v>
+        <v>250619</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>292909</v>
+        <v>292601</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.6096172375947887</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.560813901266267</v>
+        <v>0.5617365401305653</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.6565233321627924</v>
+        <v>0.6558337405763091</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -2719,19 +2719,19 @@
         <v>271981</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>244467</v>
+        <v>244580</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>297463</v>
+        <v>299585</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3174117595428705</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.285301893934692</v>
+        <v>0.2854334623346977</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3471496439365786</v>
+        <v>0.3496259989895792</v>
       </c>
     </row>
     <row r="35">
@@ -2748,19 +2748,19 @@
         <v>3034</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>909</v>
+        <v>908</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8285</v>
+        <v>9037</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006800810950697886</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002037591768601082</v>
+        <v>0.002034293335655904</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01857100145165629</v>
+        <v>0.02025495036857865</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>45</v>
@@ -2769,19 +2769,19 @@
         <v>45963</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>34691</v>
+        <v>34452</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>59855</v>
+        <v>59773</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1119076787961083</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0844648323465092</v>
+        <v>0.08388186187432031</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1457311309864776</v>
+        <v>0.1455325324561474</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>48</v>
@@ -2790,19 +2790,19 @@
         <v>48997</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>36192</v>
+        <v>37112</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>64011</v>
+        <v>65363</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.05718128031945067</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04223777706683125</v>
+        <v>0.04331071764060408</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07470335464911589</v>
+        <v>0.07628068214228326</v>
       </c>
     </row>
     <row r="36">
@@ -2866,19 +2866,19 @@
         <v>13878</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7505</v>
+        <v>7162</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>24078</v>
+        <v>23797</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.0311056240054065</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01682076986406656</v>
+        <v>0.01605310607724816</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05396784431341699</v>
+        <v>0.05333942221425009</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>13</v>
@@ -2887,19 +2887,19 @@
         <v>13280</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>7124</v>
+        <v>7576</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>22115</v>
+        <v>21240</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.03233438099256108</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.01734517121351174</v>
+        <v>0.01844504792426777</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.05384424129195889</v>
+        <v>0.05171423949466</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>25</v>
@@ -2908,19 +2908,19 @@
         <v>27158</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>18327</v>
+        <v>17916</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>39246</v>
+        <v>39847</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.03169459935042421</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.0213887763835566</v>
+        <v>0.02090815483472967</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.04580138205437072</v>
+        <v>0.04650326030618221</v>
       </c>
     </row>
     <row r="38">
@@ -2937,19 +2937,19 @@
         <v>153704</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>133260</v>
+        <v>134109</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>173284</v>
+        <v>174750</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3445104635848086</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.2986874947877764</v>
+        <v>0.3005899616932002</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3883970586386756</v>
+        <v>0.3916834901179846</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>332</v>
@@ -2958,19 +2958,19 @@
         <v>339338</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>323279</v>
+        <v>323772</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>354124</v>
+        <v>354159</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.8262003498250925</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.7871012941199435</v>
+        <v>0.788300869585815</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.8622006217729442</v>
+        <v>0.8622856274868842</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>476</v>
@@ -2979,19 +2979,19 @@
         <v>493042</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>465152</v>
+        <v>463282</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>520891</v>
+        <v>522156</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5753970179692404</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5428493189451942</v>
+        <v>0.5406659973894613</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.6078985133787858</v>
+        <v>0.609374835945796</v>
       </c>
     </row>
     <row r="39">
@@ -3086,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6365</v>
+        <v>6415</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005249400054581277</v>
@@ -3095,7 +3095,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01870597216322615</v>
+        <v>0.018853165538319</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>5766</v>
+        <v>6070</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.002731288595941744</v>
@@ -3129,7 +3129,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008817149101130302</v>
+        <v>0.009281809221656947</v>
       </c>
     </row>
     <row r="41">
@@ -3146,19 +3146,19 @@
         <v>2660</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>775</v>
+        <v>784</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>7495</v>
+        <v>7826</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.007817286026166945</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002277692508199801</v>
+        <v>0.002303398957176149</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02202729158637698</v>
+        <v>0.02299823295783996</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>9</v>
@@ -3167,19 +3167,19 @@
         <v>9274</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>4747</v>
+        <v>4753</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>17599</v>
+        <v>17581</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02956364210462452</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01513069311556029</v>
+        <v>0.01515241158912652</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.056099290699689</v>
+        <v>0.05604098396580721</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>12</v>
@@ -3188,19 +3188,19 @@
         <v>11934</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>6418</v>
+        <v>6306</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>20569</v>
+        <v>19816</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01824890637429212</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.009813746439692239</v>
+        <v>0.0096419232080202</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03145207037083424</v>
+        <v>0.03030036815307425</v>
       </c>
     </row>
     <row r="42">
@@ -3264,19 +3264,19 @@
         <v>259930</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>242898</v>
+        <v>245084</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>275167</v>
+        <v>274298</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.7638988955057247</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.7138439545779566</v>
+        <v>0.7202667298436198</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.8086773492307853</v>
+        <v>0.80612474919757</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -3298,19 +3298,19 @@
         <v>259930</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>234293</v>
+        <v>234329</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>284350</v>
+        <v>282792</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3974603421445092</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3582576404307408</v>
+        <v>0.3583129554284766</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4348010271204354</v>
+        <v>0.4324182681816157</v>
       </c>
     </row>
     <row r="44">
@@ -3327,19 +3327,19 @@
         <v>15155</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>8619</v>
+        <v>8935</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>24724</v>
+        <v>24594</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.0445386408062947</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02532911157109334</v>
+        <v>0.02625799228038821</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.07265951824203049</v>
+        <v>0.07227858800797625</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>150</v>
@@ -3348,19 +3348,19 @@
         <v>153074</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>135385</v>
+        <v>135848</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>172663</v>
+        <v>170643</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4879478575477791</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4315604301960732</v>
+        <v>0.4330376468025935</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5503894123851076</v>
+        <v>0.5439500387366543</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>165</v>
@@ -3369,19 +3369,19 @@
         <v>168229</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>146081</v>
+        <v>147863</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>190795</v>
+        <v>193294</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2572398672195243</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2233728301566958</v>
+        <v>0.2260981001088933</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2917457371829357</v>
+        <v>0.2955669374550254</v>
       </c>
     </row>
     <row r="45">
@@ -3445,19 +3445,19 @@
         <v>5886</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>2045</v>
+        <v>2003</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>11801</v>
+        <v>12597</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.01729910475336879</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.006009572763022431</v>
+        <v>0.005886432625340122</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.03468191912479585</v>
+        <v>0.03702106413348365</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>6</v>
@@ -3466,19 +3466,19 @@
         <v>5863</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>2131</v>
+        <v>1947</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>13454</v>
+        <v>11639</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.01868912104024338</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.006793425592356368</v>
+        <v>0.006207303695989011</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.042885562535398</v>
+        <v>0.03709972180355841</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>12</v>
@@ -3487,19 +3487,19 @@
         <v>11749</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>6023</v>
+        <v>6388</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>20707</v>
+        <v>20756</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.01796588874835499</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.009209260557128214</v>
+        <v>0.00976776005714731</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.03166279417216324</v>
+        <v>0.03173751342785557</v>
       </c>
     </row>
     <row r="47">
@@ -3516,19 +3516,19 @@
         <v>54850</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>42197</v>
+        <v>42112</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>69522</v>
+        <v>69387</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1611966728538637</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1240109284958953</v>
+        <v>0.1237607979167387</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2043158801671478</v>
+        <v>0.2039177315041664</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>142</v>
@@ -3537,19 +3537,19 @@
         <v>145499</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>125899</v>
+        <v>127356</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>163505</v>
+        <v>162826</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.463799379307353</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.4013232984089193</v>
+        <v>0.4059675507041441</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.5211987976027618</v>
+        <v>0.5190340185060113</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>195</v>
@@ -3558,19 +3558,19 @@
         <v>200349</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>178561</v>
+        <v>178250</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>224827</v>
+        <v>226625</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.3063537069173776</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2730375739761391</v>
+        <v>0.2725621676962148</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3437835377755958</v>
+        <v>0.3465325934581822</v>
       </c>
     </row>
     <row r="48">
@@ -3712,7 +3712,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>6250</v>
+        <v>5688</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.006267803011670545</v>
@@ -3721,7 +3721,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02440469796539832</v>
+        <v>0.02221002342649521</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>2</v>
@@ -3733,7 +3733,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>6353</v>
+        <v>7673</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.01017637368405042</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.0307021420722495</v>
+        <v>0.03708374738497135</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>4</v>
@@ -3751,19 +3751,19 @@
         <v>3711</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>835</v>
+        <v>845</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>9055</v>
+        <v>9001</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.00801454410979263</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.001802683266253155</v>
+        <v>0.001824274009990848</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01955806409233846</v>
+        <v>0.0194416226299141</v>
       </c>
     </row>
     <row r="51">
@@ -3827,19 +3827,19 @@
         <v>201104</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>187346</v>
+        <v>186099</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>213762</v>
+        <v>212078</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.7853129799356016</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.7315895131981379</v>
+        <v>0.7267210629844623</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.8347443777470175</v>
+        <v>0.8281676146980351</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -3861,19 +3861,19 @@
         <v>201104</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>181234</v>
+        <v>181463</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>221047</v>
+        <v>220544</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.4343564354791584</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3914403947098088</v>
+        <v>0.3919364493480225</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.4774323206642266</v>
+        <v>0.4763456457166815</v>
       </c>
     </row>
     <row r="53">
@@ -3890,19 +3890,19 @@
         <v>42214</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>31042</v>
+        <v>32063</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>54548</v>
+        <v>56002</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.16484784320934</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1212209519972402</v>
+        <v>0.1252067414656797</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2130103086751173</v>
+        <v>0.2186901135992756</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>216</v>
@@ -3911,19 +3911,19 @@
         <v>198283</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>190424</v>
+        <v>189913</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>202946</v>
+        <v>203002</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.9583003721947891</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.9203173656495931</v>
+        <v>0.9178493908533144</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.9808394754423116</v>
+        <v>0.9811092832976905</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>259</v>
@@ -3932,19 +3932,19 @@
         <v>240497</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>221168</v>
+        <v>218899</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>262324</v>
+        <v>259971</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.5194419539367526</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.4776921590506314</v>
+        <v>0.4727914328231942</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.5665841192447741</v>
+        <v>0.5615027399580881</v>
       </c>
     </row>
     <row r="54">
@@ -4055,19 +4055,19 @@
         <v>11158</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>6147</v>
+        <v>6165</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>18874</v>
+        <v>18969</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.04357137384338787</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.02400539215546671</v>
+        <v>0.02407606279347208</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.07370298190097342</v>
+        <v>0.07407308462717382</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>7</v>
@@ -4076,19 +4076,19 @@
         <v>6523</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>2875</v>
+        <v>2812</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>13256</v>
+        <v>13242</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.03152325412116042</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.01389446091455121</v>
+        <v>0.01358929400207699</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.06406619101682584</v>
+        <v>0.06399852708781931</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>19</v>
@@ -4097,19 +4097,19 @@
         <v>17680</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>11007</v>
+        <v>11108</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>27419</v>
+        <v>28032</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.03818706647429636</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.02377417540046753</v>
+        <v>0.02399114677133009</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.05922099254237451</v>
+        <v>0.06054497791535213</v>
       </c>
     </row>
     <row r="57">
@@ -4251,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>4014</v>
+        <v>5283</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.005980198710918567</v>
@@ -4260,7 +4260,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.02765130725567409</v>
+        <v>0.03639694002545819</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>0</v>
@@ -4285,7 +4285,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>4331</v>
+        <v>4839</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.003384247864386258</v>
@@ -4294,7 +4294,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01688554534339294</v>
+        <v>0.0188659954994332</v>
       </c>
     </row>
     <row r="60">
@@ -4358,19 +4358,19 @@
         <v>111881</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>101141</v>
+        <v>100982</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>120550</v>
+        <v>120512</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.7707626296480549</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.6967714368337937</v>
+        <v>0.6956781747104729</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.8304830427991109</v>
+        <v>0.8302247666265908</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>2</v>
@@ -4382,7 +4382,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>11204</v>
+        <v>9773</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.02535174888604172</v>
@@ -4391,7 +4391,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.1006205113965117</v>
+        <v>0.08777395118009733</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>119</v>
@@ -4400,19 +4400,19 @@
         <v>114704</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>98789</v>
+        <v>99331</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>130128</v>
+        <v>130372</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.4471864241625158</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.3851416785738429</v>
+        <v>0.3872520660194719</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.5073180646966452</v>
+        <v>0.5082696095499207</v>
       </c>
     </row>
     <row r="62">
@@ -4429,19 +4429,19 @@
         <v>30758</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>22052</v>
+        <v>22037</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>40844</v>
+        <v>41069</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.2118945035817669</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1519198064239621</v>
+        <v>0.1518152592011602</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.2813778792036418</v>
+        <v>0.2829318108318348</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>94</v>
@@ -4450,7 +4450,7 @@
         <v>108522</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>100141</v>
+        <v>101572</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>111345</v>
@@ -4459,7 +4459,7 @@
         <v>0.9746482511139583</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.8993794886034877</v>
+        <v>0.9122260488199022</v>
       </c>
       <c r="P62" s="6" t="n">
         <v>1</v>
@@ -4471,19 +4471,19 @@
         <v>139280</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>123276</v>
+        <v>123722</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>155407</v>
+        <v>155035</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.5429990926294009</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.4806077493238929</v>
+        <v>0.4823433568656834</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.6058734736691648</v>
+        <v>0.6044215184993081</v>
       </c>
     </row>
     <row r="63">
@@ -4597,7 +4597,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>5048</v>
+        <v>5805</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01136266805925967</v>
@@ -4606,7 +4606,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.03477359643658581</v>
+        <v>0.03998983316276868</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>0</v>
@@ -4631,7 +4631,7 @@
         <v>0</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>5012</v>
+        <v>5283</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.006430235343696948</v>
@@ -4640,7 +4640,7 @@
         <v>0</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.01953866926393127</v>
+        <v>0.02059698379971805</v>
       </c>
     </row>
     <row r="66">
@@ -4732,19 +4732,19 @@
         <v>9416</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>4669</v>
+        <v>3922</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>17627</v>
+        <v>17390</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.00440032413852534</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.002182157239621809</v>
+        <v>0.001832688631766641</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.00823736041308961</v>
+        <v>0.008126634023887086</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>11</v>
@@ -4753,19 +4753,19 @@
         <v>11670</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>5782</v>
+        <v>6442</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>20895</v>
+        <v>20313</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.005525876946830347</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.002738010897781049</v>
+        <v>0.003050317180785485</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.009894187377687581</v>
+        <v>0.009618415264343703</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>20</v>
@@ -4774,19 +4774,19 @@
         <v>21086</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>13508</v>
+        <v>13245</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>32987</v>
+        <v>32564</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.00495940014815589</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.003176991687258756</v>
+        <v>0.003115121731830152</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.007758458616626425</v>
+        <v>0.007659022973183586</v>
       </c>
     </row>
     <row r="68">
@@ -4803,19 +4803,19 @@
         <v>8687</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>4229</v>
+        <v>4269</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>17210</v>
+        <v>17378</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.004059707050957646</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.00197652658440224</v>
+        <v>0.001995242819820804</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.008042523240578693</v>
+        <v>0.00812119647749353</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>20</v>
@@ -4824,19 +4824,19 @@
         <v>20272</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>12843</v>
+        <v>12712</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>31836</v>
+        <v>30876</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.009598916062210364</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.006081279041168122</v>
+        <v>0.00601910635823417</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.01507471624087018</v>
+        <v>0.0146201252296584</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>29</v>
@@ -4845,19 +4845,19 @@
         <v>28959</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>19105</v>
+        <v>19838</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>40998</v>
+        <v>39227</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.006811100719624638</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.004493507179108213</v>
+        <v>0.004665913367822144</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.009642676966820564</v>
+        <v>0.009226187151745427</v>
       </c>
     </row>
     <row r="69">
@@ -4874,19 +4874,19 @@
         <v>16185</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>9025</v>
+        <v>9114</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>27708</v>
+        <v>27885</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.00756379019022654</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.004217500453661903</v>
+        <v>0.004259292005507753</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.0129485830898297</v>
+        <v>0.0130312731793054</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>0</v>
@@ -4908,19 +4908,19 @@
         <v>16185</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>9054</v>
+        <v>8647</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>27576</v>
+        <v>27417</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.003806761993919445</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.002129596307155088</v>
+        <v>0.002033824938618138</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.006485916860925593</v>
+        <v>0.006448546924600469</v>
       </c>
     </row>
     <row r="70">
@@ -4937,19 +4937,19 @@
         <v>1221206</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>1174623</v>
+        <v>1172779</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>1265965</v>
+        <v>1271645</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.5707027636504898</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.5489333041492231</v>
+        <v>0.5480712268112866</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.591619702091337</v>
+        <v>0.5942743338128593</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>4</v>
@@ -4958,19 +4958,19 @@
         <v>4687</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>1802</v>
+        <v>988</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>14032</v>
+        <v>12668</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.002219248609838984</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.0008530458406448177</v>
+        <v>0.0004680496593621847</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.006644189242372621</v>
+        <v>0.005998394603768226</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>1220</v>
@@ -4979,19 +4979,19 @@
         <v>1225893</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>1169027</v>
+        <v>1163591</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>1283123</v>
+        <v>1283176</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.2883299662263554</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.2749551265470488</v>
+        <v>0.2736765767164526</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.3017904648545011</v>
+        <v>0.3018028475381591</v>
       </c>
     </row>
     <row r="71">
@@ -5008,19 +5008,19 @@
         <v>92733</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>74397</v>
+        <v>77256</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>111321</v>
+        <v>113317</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.04333661765596094</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.03476765965418548</v>
+        <v>0.03610377803012736</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.05202310251559674</v>
+        <v>0.05295587311666234</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>515</v>
@@ -5029,19 +5029,19 @@
         <v>516705</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>476757</v>
+        <v>477406</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>555714</v>
+        <v>556100</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.2446666313625367</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.2257509787739932</v>
+        <v>0.2260579667808265</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.2631378249313325</v>
+        <v>0.2633207312883296</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>608</v>
@@ -5050,19 +5050,19 @@
         <v>609438</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>565663</v>
+        <v>566512</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>653983</v>
+        <v>655289</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.1433397271070765</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.1330440048059235</v>
+        <v>0.1332435577559684</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.1538168026505681</v>
+        <v>0.1541239214011492</v>
       </c>
     </row>
     <row r="72">
@@ -5082,7 +5082,7 @@
         <v>0</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>9129</v>
+        <v>9172</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.0008533800239783727</v>
@@ -5091,7 +5091,7 @@
         <v>0</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.004266300235563662</v>
+        <v>0.004286224018244885</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>1</v>
@@ -5103,7 +5103,7 @@
         <v>0</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>5309</v>
+        <v>5287</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.0005018917631511793</v>
@@ -5112,7 +5112,7 @@
         <v>0</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.002513871846657152</v>
+        <v>0.002503478400842533</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>2</v>
@@ -5124,7 +5124,7 @@
         <v>0</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>11251</v>
+        <v>10556</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.000678791454836801</v>
@@ -5133,7 +5133,7 @@
         <v>0</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.002646330804077804</v>
+        <v>0.002482705246453084</v>
       </c>
     </row>
     <row r="73">
@@ -5150,19 +5150,19 @@
         <v>81486</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>63295</v>
+        <v>64281</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>101738</v>
+        <v>101361</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.03808078650494138</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.02957956430941163</v>
+        <v>0.03004006871325818</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.04754487283825175</v>
+        <v>0.04736885862701746</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>63</v>
@@ -5171,19 +5171,19 @@
         <v>63482</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>50050</v>
+        <v>49016</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>81330</v>
+        <v>81976</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.0300595921749127</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.02369927745280994</v>
+        <v>0.02320952269498096</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.03851104719901332</v>
+        <v>0.03881655041758692</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>141</v>
@@ -5192,19 +5192,19 @@
         <v>144968</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>121966</v>
+        <v>123618</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>171514</v>
+        <v>169585</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.03409656001159998</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.02868639630280831</v>
+        <v>0.02907486023470003</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.04033997204435781</v>
+        <v>0.03988626912106294</v>
       </c>
     </row>
     <row r="74">
@@ -5221,19 +5221,19 @@
         <v>708289</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>664660</v>
+        <v>666688</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>749574</v>
+        <v>752425</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.33100263078492</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.3106136728106058</v>
+        <v>0.3115612154248435</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.3502959932735584</v>
+        <v>0.3516285700895069</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>1437</v>
@@ -5242,19 +5242,19 @@
         <v>1493998</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>1452216</v>
+        <v>1454450</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>1534262</v>
+        <v>1535753</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.7074278430805198</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.6876438433065776</v>
+        <v>0.6887014987164419</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.7264935679783449</v>
+        <v>0.7271994659264939</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>2111</v>
@@ -5263,19 +5263,19 @@
         <v>2202287</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>2142040</v>
+        <v>2136549</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>2270873</v>
+        <v>2264724</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.5179776923384313</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.5038076446448293</v>
+        <v>0.5025161060265164</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.5341092101483672</v>
+        <v>0.532662879505728</v>
       </c>
     </row>
     <row r="75">
@@ -5613,7 +5613,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>4065</v>
+        <v>4752</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02048028638941704</v>
@@ -5622,7 +5622,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08774698496987732</v>
+        <v>0.1025733624428256</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>0</v>
@@ -5647,7 +5647,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>5285</v>
+        <v>5174</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007718255617564111</v>
@@ -5656,7 +5656,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04298763443586658</v>
+        <v>0.04208717072921199</v>
       </c>
     </row>
     <row r="5">
@@ -5720,19 +5720,19 @@
         <v>5645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1956</v>
+        <v>1948</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>11625</v>
+        <v>10868</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1218373946155228</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.04220909193631044</v>
+        <v>0.04203880576253779</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2509274193256387</v>
+        <v>0.2345730486213235</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -5744,7 +5744,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>5252</v>
+        <v>4407</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.01229638519484765</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.06856225214629511</v>
+        <v>0.0575337907185394</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -5762,19 +5762,19 @@
         <v>6587</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>2806</v>
+        <v>2821</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13232</v>
+        <v>12591</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.05357830358401892</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.02282203140563533</v>
+        <v>0.02294649758104845</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1076377910276546</v>
+        <v>0.1024218065130779</v>
       </c>
     </row>
     <row r="7">
@@ -5791,19 +5791,19 @@
         <v>7070</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2925</v>
+        <v>2966</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13322</v>
+        <v>13143</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1525985531396318</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.06314070954594313</v>
+        <v>0.06401851451866034</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2875438879507646</v>
+        <v>0.2836939639979297</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>0</v>
@@ -5825,19 +5825,19 @@
         <v>7070</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>2886</v>
+        <v>2933</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>13838</v>
+        <v>14378</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.05750869971284832</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02347316925576902</v>
+        <v>0.02385801393100209</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1125635156369446</v>
+        <v>0.1169574792620589</v>
       </c>
     </row>
     <row r="8">
@@ -5904,7 +5904,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>6152</v>
+        <v>7236</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04328424539283369</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1327961670346538</v>
+        <v>0.1561790744677163</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -5925,7 +5925,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>6559</v>
+        <v>5595</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.01295177885618633</v>
@@ -5934,7 +5934,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.08562592558532105</v>
+        <v>0.07304089560283986</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>3</v>
@@ -5943,19 +5943,19 @@
         <v>2997</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>8881</v>
+        <v>7873</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.02438295348868705</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.007834128673364655</v>
+        <v>0.007843422852257014</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.07224407557466797</v>
+        <v>0.06404447009365273</v>
       </c>
     </row>
     <row r="10">
@@ -5972,19 +5972,19 @@
         <v>10949</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>6149</v>
+        <v>6146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>17708</v>
+        <v>17430</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2363284572799997</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1327180189565818</v>
+        <v>0.1326692566372045</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3822131030812157</v>
+        <v>0.3762309295097296</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>17</v>
@@ -5993,19 +5993,19 @@
         <v>17811</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11482</v>
+        <v>11038</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26311</v>
+        <v>25823</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2325094943903733</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.149883331412628</v>
+        <v>0.1440933932506039</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3434725432495691</v>
+        <v>0.3370916210657661</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>28</v>
@@ -6014,19 +6014,19 @@
         <v>28760</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20230</v>
+        <v>20231</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>39872</v>
+        <v>38368</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2339487189800919</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1645623311158829</v>
+        <v>0.1645662919787431</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3243406224899373</v>
+        <v>0.3121024957892804</v>
       </c>
     </row>
     <row r="11">
@@ -6043,19 +6043,19 @@
         <v>19712</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>13146</v>
+        <v>13275</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>26564</v>
+        <v>26733</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4254710631825949</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2837523118707426</v>
+        <v>0.2865404875940153</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5733787881037828</v>
+        <v>0.5770311788151551</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -6064,19 +6064,19 @@
         <v>56859</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>47342</v>
+        <v>48818</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>63422</v>
+        <v>63863</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7422423415585927</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6180032873415806</v>
+        <v>0.6372743206451112</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8279138825002623</v>
+        <v>0.8336832333603297</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>75</v>
@@ -6085,19 +6085,19 @@
         <v>76570</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>65886</v>
+        <v>66024</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>86732</v>
+        <v>86885</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6228630686167898</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5359534717419718</v>
+        <v>0.5370768199102368</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7055239697366046</v>
+        <v>0.7067691833566938</v>
       </c>
     </row>
     <row r="12">
@@ -6192,7 +6192,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9236</v>
+        <v>9297</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.005771916231353326</v>
@@ -6201,7 +6201,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02856392371945651</v>
+        <v>0.02875267583684149</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>0</v>
@@ -6226,7 +6226,7 @@
         <v>0</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>9300</v>
+        <v>9330</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.002536373294931518</v>
@@ -6235,7 +6235,7 @@
         <v>0</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01263941920456069</v>
+        <v>0.01268090119522601</v>
       </c>
     </row>
     <row r="14">
@@ -6268,7 +6268,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6387</v>
+        <v>7421</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005119492353115566</v>
@@ -6277,7 +6277,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.01548469687612409</v>
+        <v>0.01799153604131986</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2</v>
@@ -6289,7 +6289,7 @@
         <v>0</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>7322</v>
+        <v>6397</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.002869815960115681</v>
@@ -6298,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.009950687134432458</v>
+        <v>0.00869421756717147</v>
       </c>
     </row>
     <row r="15">
@@ -6315,19 +6315,19 @@
         <v>8968</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4624</v>
+        <v>4316</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>16906</v>
+        <v>15926</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02773762506072129</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01430249884013073</v>
+        <v>0.01334826481300573</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05228618909317136</v>
+        <v>0.0492574879580913</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>4</v>
@@ -6336,19 +6336,19 @@
         <v>3933</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>988</v>
+        <v>1004</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>9050</v>
+        <v>8972</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.009535381370009631</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.002394881035180733</v>
+        <v>0.002433040627524838</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0219419587855033</v>
+        <v>0.02175132861141464</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>13</v>
@@ -6357,19 +6357,19 @@
         <v>12901</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>7815</v>
+        <v>7585</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>21374</v>
+        <v>21118</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01753405684526544</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.01062101237800599</v>
+        <v>0.01030861387539193</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02904964487090244</v>
+        <v>0.02870169805556379</v>
       </c>
     </row>
     <row r="16">
@@ -6386,19 +6386,19 @@
         <v>59988</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47095</v>
+        <v>45080</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>74604</v>
+        <v>73934</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1855308464515703</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1456567154443479</v>
+        <v>0.1394228620010894</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2307352868068905</v>
+        <v>0.2286646984958255</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -6420,19 +6420,19 @@
         <v>59988</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>46573</v>
+        <v>46100</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>75426</v>
+        <v>75250</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08152846740387781</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.06329696342714439</v>
+        <v>0.06265299759838891</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1025099954068497</v>
+        <v>0.1022708595785069</v>
       </c>
     </row>
     <row r="17">
@@ -6499,7 +6499,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7015</v>
+        <v>7302</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.006082248778633686</v>
@@ -6508,7 +6508,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.02169666674398148</v>
+        <v>0.02258500823621957</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>2</v>
@@ -6520,7 +6520,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8065</v>
+        <v>8118</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.00562182996986055</v>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01955404582717631</v>
+        <v>0.01968278810475657</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>4</v>
@@ -6538,19 +6538,19 @@
         <v>4285</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>1153</v>
+        <v>1139</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>10751</v>
+        <v>11276</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.00582415341397307</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001567228866271902</v>
+        <v>0.00154836052960681</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01461104235703499</v>
+        <v>0.01532510884727908</v>
       </c>
     </row>
     <row r="19">
@@ -6567,19 +6567,19 @@
         <v>69195</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>55240</v>
+        <v>54735</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>84242</v>
+        <v>88074</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2140063802433281</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1708481095309517</v>
+        <v>0.169283668629576</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2605450275888511</v>
+        <v>0.2723966247368225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>67</v>
@@ -6588,19 +6588,19 @@
         <v>74019</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>56490</v>
+        <v>59424</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>91536</v>
+        <v>91936</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1794575042030887</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1369598394820661</v>
+        <v>0.1440713997302456</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2219275391136023</v>
+        <v>0.2228965136402982</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>132</v>
@@ -6609,19 +6609,19 @@
         <v>143214</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>122784</v>
+        <v>120330</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>167971</v>
+        <v>166038</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1946394373854101</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1668739787124716</v>
+        <v>0.1635376371630218</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2282865033476973</v>
+        <v>0.2256587978867313</v>
       </c>
     </row>
     <row r="20">
@@ -6638,19 +6638,19 @@
         <v>181347</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163326</v>
+        <v>163651</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>199836</v>
+        <v>199460</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.5608709832343933</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5051355858777856</v>
+        <v>0.5061420479327903</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6180546903165198</v>
+        <v>0.6168908523217045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>310</v>
@@ -6659,19 +6659,19 @@
         <v>330078</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>312639</v>
+        <v>313016</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>347268</v>
+        <v>345112</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8002657921039256</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.75798582143392</v>
+        <v>0.7589009643700654</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8419441542834059</v>
+        <v>0.8367154311107917</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>487</v>
@@ -6680,19 +6680,19 @@
         <v>511425</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>486315</v>
+        <v>486081</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>536273</v>
+        <v>537337</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6950676956964263</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6609418225012291</v>
+        <v>0.6606239881066561</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7288391247887713</v>
+        <v>0.7302852653185501</v>
       </c>
     </row>
     <row r="21">
@@ -6800,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>5009</v>
+        <v>5966</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.001642184962495249</v>
@@ -6809,7 +6809,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.008245667427412985</v>
+        <v>0.009821338925652758</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -6821,7 +6821,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5677</v>
+        <v>5263</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.0008619576506203793</v>
@@ -6830,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.004904916850621526</v>
+        <v>0.004547383841930093</v>
       </c>
     </row>
     <row r="23">
@@ -6847,19 +6847,19 @@
         <v>2823</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>846</v>
+        <v>855</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>7502</v>
+        <v>8347</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.005134502410062958</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.001538466742240462</v>
+        <v>0.001555062358501117</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01364309685772846</v>
+        <v>0.01517854707615541</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>6</v>
@@ -6868,19 +6868,19 @@
         <v>6202</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2919</v>
+        <v>2902</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>13315</v>
+        <v>12929</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01020991235021429</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.004804816667081545</v>
+        <v>0.004777601849358016</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.02191843012646313</v>
+        <v>0.0212817732090261</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>9</v>
@@ -6889,19 +6889,19 @@
         <v>9026</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4685</v>
+        <v>4487</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>17481</v>
+        <v>17449</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.007798507091545857</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.004047701736303732</v>
+        <v>0.003876856328329859</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0151038619958905</v>
+        <v>0.01507620024319488</v>
       </c>
     </row>
     <row r="24">
@@ -6921,7 +6921,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12276</v>
+        <v>11716</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.005491269706074206</v>
@@ -6930,7 +6930,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.02232337814793732</v>
+        <v>0.02130620617593447</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -6942,7 +6942,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>9677</v>
+        <v>10718</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.004824207090138427</v>
@@ -6951,7 +6951,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01592859115309873</v>
+        <v>0.01764208372722761</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4</v>
@@ -6960,19 +6960,19 @@
         <v>5950</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1856</v>
+        <v>1901</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>15063</v>
+        <v>15792</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005141138790020131</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001603343380469678</v>
+        <v>0.001642613319023674</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01301466712067775</v>
+        <v>0.013644751929101</v>
       </c>
     </row>
     <row r="25">
@@ -6989,19 +6989,19 @@
         <v>170135</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>149789</v>
+        <v>148860</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>193168</v>
+        <v>194319</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3093963044976765</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2723961827425034</v>
+        <v>0.2707060484742885</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3512817908915652</v>
+        <v>0.3533744921093178</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -7023,19 +7023,19 @@
         <v>170135</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>146197</v>
+        <v>147152</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>194785</v>
+        <v>196718</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.146998938898723</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1263162965607705</v>
+        <v>0.1271414020661144</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1682964227758216</v>
+        <v>0.1699662729649087</v>
       </c>
     </row>
     <row r="26">
@@ -7065,19 +7065,19 @@
         <v>3971</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1037</v>
+        <v>996</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>10297</v>
+        <v>10787</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.006536917743890825</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.001706971224720855</v>
+        <v>0.001640072407011762</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01695056154943726</v>
+        <v>0.01775580009324736</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4</v>
@@ -7086,19 +7086,19 @@
         <v>3971</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1032</v>
+        <v>1042</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>10027</v>
+        <v>9673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.003431127668019373</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.0008916774821259073</v>
+        <v>0.0009004312974613653</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.008663744763251395</v>
+        <v>0.008357315396747451</v>
       </c>
     </row>
     <row r="27">
@@ -7115,19 +7115,19 @@
         <v>2847</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>925</v>
+        <v>933</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8560</v>
+        <v>7680</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.005178156216952832</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.001681855332790845</v>
+        <v>0.001696560448906088</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.01556675990033408</v>
+        <v>0.01396641758383302</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>0</v>
@@ -7149,19 +7149,19 @@
         <v>2847</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7642</v>
+        <v>7666</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.002460221593724977</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.0008083677711925527</v>
+        <v>0.0008069411557698477</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.006603000039454509</v>
+        <v>0.006623236244216954</v>
       </c>
     </row>
     <row r="28">
@@ -7178,19 +7178,19 @@
         <v>100706</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>82544</v>
+        <v>82240</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>120515</v>
+        <v>121424</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1831362662363931</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1501091887525142</v>
+        <v>0.1495563351219258</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.219159890848118</v>
+        <v>0.2208132861812874</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>105</v>
@@ -7199,19 +7199,19 @@
         <v>112021</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>93135</v>
+        <v>93371</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>131602</v>
+        <v>132090</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1843983724059071</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1533088176644306</v>
+        <v>0.1536986895804717</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2166306280817916</v>
+        <v>0.2174329958758685</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>199</v>
@@ -7220,19 +7220,19 @@
         <v>212727</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>185738</v>
+        <v>187742</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>241442</v>
+        <v>241695</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.183798726369419</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1604801240791182</v>
+        <v>0.162211590190419</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2086086097875684</v>
+        <v>0.2088276663151519</v>
       </c>
     </row>
     <row r="29">
@@ -7249,19 +7249,19 @@
         <v>270363</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>247463</v>
+        <v>247244</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>296442</v>
+        <v>295444</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4916635009328405</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4500181706313152</v>
+        <v>0.4496198897312593</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.539087618949741</v>
+        <v>0.5372730929501272</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>454</v>
@@ -7270,19 +7270,19 @@
         <v>481374</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>460255</v>
+        <v>461666</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>501004</v>
+        <v>499847</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7923884054473541</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7576256619543903</v>
+        <v>0.759947890437314</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8247013054078575</v>
+        <v>0.8227968244815305</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>710</v>
@@ -7291,19 +7291,19 @@
         <v>751737</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>718170</v>
+        <v>718372</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>784572</v>
+        <v>785915</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6495093819379273</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6205067551934897</v>
+        <v>0.6206815846567949</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6778792924050594</v>
+        <v>0.6790394177180594</v>
       </c>
     </row>
     <row r="30">
@@ -7398,7 +7398,7 @@
         <v>0</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>9072</v>
+        <v>6125</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.002675725966027835</v>
@@ -7407,7 +7407,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.01819333279769183</v>
+        <v>0.01228330883203509</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -7419,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>10764</v>
+        <v>10169</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.005972523123484882</v>
@@ -7428,7 +7428,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02190692475193138</v>
+        <v>0.02069692521746055</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>3</v>
@@ -7437,19 +7437,19 @@
         <v>4269</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>1085</v>
+        <v>1079</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>13899</v>
+        <v>12446</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.004312024088085678</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.001096226634754815</v>
+        <v>0.00108983423618769</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.01404034450448143</v>
+        <v>0.01257197162698452</v>
       </c>
     </row>
     <row r="32">
@@ -7466,19 +7466,19 @@
         <v>5250</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>1988</v>
+        <v>2012</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>11977</v>
+        <v>11253</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01052870579003219</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003986197875669572</v>
+        <v>0.004035594459249647</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02401990515082711</v>
+        <v>0.02256913468033799</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>23</v>
@@ -7487,19 +7487,19 @@
         <v>28201</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>18371</v>
+        <v>18345</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>41445</v>
+        <v>42514</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.0573941160704648</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.03738830758127436</v>
+        <v>0.03733632128698718</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.084348997928685</v>
+        <v>0.08652568451244846</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>28</v>
@@ -7508,19 +7508,19 @@
         <v>33450</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>22788</v>
+        <v>22949</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>48918</v>
+        <v>47685</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.03378939765816431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02301902791766443</v>
+        <v>0.02318191918487319</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.04941382704693517</v>
+        <v>0.04816845331755452</v>
       </c>
     </row>
     <row r="33">
@@ -7540,7 +7540,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>11876</v>
+        <v>8967</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.004459869945127357</v>
@@ -7549,7 +7549,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.02381783987563998</v>
+        <v>0.01798440303207537</v>
       </c>
       <c r="J33" s="5" t="n">
         <v>1</v>
@@ -7561,7 +7561,7 @@
         <v>0</v>
       </c>
       <c r="M33" s="5" t="n">
-        <v>10592</v>
+        <v>8882</v>
       </c>
       <c r="N33" s="6" t="n">
         <v>0.003826362269135318</v>
@@ -7570,7 +7570,7 @@
         <v>0</v>
       </c>
       <c r="P33" s="6" t="n">
-        <v>0.02155705867247094</v>
+        <v>0.01807588928689084</v>
       </c>
       <c r="Q33" s="5" t="n">
         <v>2</v>
@@ -7582,7 +7582,7 @@
         <v>0</v>
       </c>
       <c r="T33" s="5" t="n">
-        <v>14161</v>
+        <v>12890</v>
       </c>
       <c r="U33" s="6" t="n">
         <v>0.004145441313025957</v>
@@ -7591,7 +7591,7 @@
         <v>0</v>
       </c>
       <c r="W33" s="6" t="n">
-        <v>0.0143043880181976</v>
+        <v>0.01302033377570508</v>
       </c>
     </row>
     <row r="34">
@@ -7608,19 +7608,19 @@
         <v>205515</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>182570</v>
+        <v>182578</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>229486</v>
+        <v>227947</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.412170136597442</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3661529499340084</v>
+        <v>0.3661688059339494</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4602457936629519</v>
+        <v>0.4571594728557096</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5658</v>
+        <v>5279</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002110262724508443</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01151451058173408</v>
+        <v>0.0107432340998053</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>192</v>
@@ -7650,19 +7650,19 @@
         <v>206552</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>182614</v>
+        <v>181870</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>231181</v>
+        <v>232798</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2086452700366156</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.184465101113575</v>
+        <v>0.1837132299518695</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2335235247145846</v>
+        <v>0.2351569482308938</v>
       </c>
     </row>
     <row r="35">
@@ -7692,19 +7692,19 @@
         <v>26440</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>16971</v>
+        <v>17548</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>39079</v>
+        <v>39770</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.05381153761724294</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.0345400033245853</v>
+        <v>0.03571348535175751</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.07953425374486976</v>
+        <v>0.08093928036677736</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>23</v>
@@ -7713,19 +7713,19 @@
         <v>26440</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>17809</v>
+        <v>16726</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>39945</v>
+        <v>39145</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.02670826069749995</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01798917165304345</v>
+        <v>0.01689571652659655</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.04034991923370931</v>
+        <v>0.03954134260647688</v>
       </c>
     </row>
     <row r="36">
@@ -7789,19 +7789,19 @@
         <v>64368</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>49681</v>
+        <v>49890</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>79489</v>
+        <v>83322</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1290934358432364</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.09963703945789192</v>
+        <v>0.1000557892460359</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1594188926847003</v>
+        <v>0.1671055480299284</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>66</v>
@@ -7810,19 +7810,19 @@
         <v>73280</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>55858</v>
+        <v>57564</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>90282</v>
+        <v>91097</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1491400241083686</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1136817093542759</v>
+        <v>0.1171540669809005</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1837425533043706</v>
+        <v>0.185400901462535</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>123</v>
@@ -7831,19 +7831,19 @@
         <v>137648</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>115861</v>
+        <v>115887</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>162749</v>
+        <v>164405</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1390431516326071</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1170351467413731</v>
+        <v>0.1170617891549592</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.164398132172612</v>
+        <v>0.1660716325598547</v>
       </c>
     </row>
     <row r="38">
@@ -7860,19 +7860,19 @@
         <v>219926</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>197095</v>
+        <v>197498</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>243168</v>
+        <v>246390</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.4410721258581342</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3952842028884196</v>
+        <v>0.3960908119768742</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4876853877933229</v>
+        <v>0.4941474833878808</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>312</v>
@@ -7881,19 +7881,19 @@
         <v>357578</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>335018</v>
+        <v>334960</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>378148</v>
+        <v>377985</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.727745174086795</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6818317782152146</v>
+        <v>0.6817140309892078</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7696107395799318</v>
+        <v>0.7692779225334866</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>504</v>
@@ -7902,19 +7902,19 @@
         <v>577504</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>542281</v>
+        <v>547030</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>609256</v>
+        <v>612583</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5833564545740014</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5477765441695266</v>
+        <v>0.5525742957155414</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.615430980764769</v>
+        <v>0.6187909796378309</v>
       </c>
     </row>
     <row r="39">
@@ -8009,7 +8009,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10753</v>
+        <v>12671</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005867390187153534</v>
@@ -8018,7 +8018,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02900735237628878</v>
+        <v>0.03418324104987998</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>0</v>
@@ -8043,7 +8043,7 @@
         <v>0</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10960</v>
+        <v>10882</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003014757101766905</v>
@@ -8052,7 +8052,7 @@
         <v>0</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01519172770927589</v>
+        <v>0.01508384715599935</v>
       </c>
     </row>
     <row r="41">
@@ -8069,19 +8069,19 @@
         <v>4357</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>1032</v>
+        <v>1015</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>14753</v>
+        <v>13189</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01175483063545381</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.002784565984452809</v>
+        <v>0.002736950814077465</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.03979802173136198</v>
+        <v>0.03558051830628587</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>17</v>
@@ -8090,19 +8090,19 @@
         <v>19726</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>11691</v>
+        <v>11902</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>30999</v>
+        <v>31071</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.05623870702098589</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03333148370855945</v>
+        <v>0.03393130669212168</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.08837724387878737</v>
+        <v>0.08858437024880875</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>20</v>
@@ -8111,19 +8111,19 @@
         <v>24083</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>15583</v>
+        <v>15771</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>38260</v>
+        <v>37682</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.0333821936530784</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02159945418304682</v>
+        <v>0.02185980619634817</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.05303323636533541</v>
+        <v>0.05223207867310391</v>
       </c>
     </row>
     <row r="42">
@@ -8187,19 +8187,19 @@
         <v>232362</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>214067</v>
+        <v>212759</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>253526</v>
+        <v>252503</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.6268406320070129</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.577488376504612</v>
+        <v>0.5739581363065152</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.683934392036233</v>
+        <v>0.681174815355885</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>2</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>11475</v>
+        <v>10467</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.008559715401815474</v>
@@ -8220,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.03271612131366223</v>
+        <v>0.02984286447512723</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>217</v>
@@ -8229,19 +8229,19 @@
         <v>235364</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>209984</v>
+        <v>209054</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>263982</v>
+        <v>263614</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3262421474145299</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2910621817921065</v>
+        <v>0.289773543713142</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3659102005673019</v>
+        <v>0.3653997779252237</v>
       </c>
     </row>
     <row r="44">
@@ -8258,19 +8258,19 @@
         <v>13719</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>7514</v>
+        <v>7429</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22833</v>
+        <v>22926</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.03700863098193563</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.02027114210465264</v>
+        <v>0.02004189935560409</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.06159581341064561</v>
+        <v>0.06184606842783025</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>158</v>
@@ -8279,19 +8279,19 @@
         <v>172762</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>152850</v>
+        <v>151462</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>192170</v>
+        <v>191974</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4925447839516887</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4357770455815766</v>
+        <v>0.431818853245113</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5478773937285231</v>
+        <v>0.5473200615924063</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>171</v>
@@ -8300,19 +8300,19 @@
         <v>186480</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>162381</v>
+        <v>161587</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>213469</v>
+        <v>210225</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2584831639687527</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2250787638235554</v>
+        <v>0.2239784494194791</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2958929779661552</v>
+        <v>0.2913962308202637</v>
       </c>
     </row>
     <row r="45">
@@ -8376,19 +8376,19 @@
         <v>33399</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>23466</v>
+        <v>23360</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>46705</v>
+        <v>45854</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09009953605648174</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06330300014501278</v>
+        <v>0.06301681746959251</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.125996026390322</v>
+        <v>0.1236995054669865</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>36</v>
@@ -8397,19 +8397,19 @@
         <v>38258</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>26838</v>
+        <v>26968</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>50713</v>
+        <v>51021</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1090747570574343</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.076516108308752</v>
+        <v>0.07688589044870064</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1445837260129518</v>
+        <v>0.1454619034282905</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>67</v>
@@ -8418,19 +8418,19 @@
         <v>71657</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>56360</v>
+        <v>56646</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>87495</v>
+        <v>90331</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.09932499090152597</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07812161105716241</v>
+        <v>0.07851831668393341</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1212785317250892</v>
+        <v>0.1252092470859997</v>
       </c>
     </row>
     <row r="47">
@@ -8447,19 +8447,19 @@
         <v>84676</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>69035</v>
+        <v>68918</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>102747</v>
+        <v>103571</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2284289801319624</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1862355240299752</v>
+        <v>0.1859192381399002</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2771808996260162</v>
+        <v>0.2794027157956371</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>105</v>
@@ -8468,19 +8468,19 @@
         <v>117005</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>98293</v>
+        <v>99599</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>135593</v>
+        <v>138843</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3335820365680756</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.2802350824046135</v>
+        <v>0.283957430767341</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.3865764328671347</v>
+        <v>0.3958424969627807</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>181</v>
@@ -8489,19 +8489,19 @@
         <v>201681</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>175794</v>
+        <v>177515</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>226847</v>
+        <v>225957</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2795527469603461</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.2436716632319068</v>
+        <v>0.246056767256161</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.31443665459009</v>
+        <v>0.3132024073626927</v>
       </c>
     </row>
     <row r="48">
@@ -8643,7 +8643,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>7434</v>
+        <v>7127</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.008320280136971085</v>
@@ -8652,7 +8652,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.02924109837218471</v>
+        <v>0.02803160954666692</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>1</v>
@@ -8664,7 +8664,7 @@
         <v>0</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>8278</v>
+        <v>6718</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.00792034369446192</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.03968893869857867</v>
+        <v>0.03220907209983789</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>3</v>
@@ -8685,16 +8685,16 @@
         <v>1022</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>11154</v>
+        <v>10568</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.008140045163713451</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.002208705503426215</v>
+        <v>0.002207886827570438</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.02410127306746078</v>
+        <v>0.02283490913051835</v>
       </c>
     </row>
     <row r="51">
@@ -8714,7 +8714,7 @@
         <v>0</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>5123</v>
+        <v>5084</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.003973809998522841</v>
@@ -8723,7 +8723,7 @@
         <v>0</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.02014987308927094</v>
+        <v>0.01999555568029259</v>
       </c>
       <c r="J51" s="5" t="n">
         <v>0</v>
@@ -8748,7 +8748,7 @@
         <v>0</v>
       </c>
       <c r="T51" s="5" t="n">
-        <v>5062</v>
+        <v>6533</v>
       </c>
       <c r="U51" s="6" t="n">
         <v>0.002182976599292745</v>
@@ -8757,7 +8757,7 @@
         <v>0</v>
       </c>
       <c r="W51" s="6" t="n">
-        <v>0.01093781444743655</v>
+        <v>0.01411610936855615</v>
       </c>
     </row>
     <row r="52">
@@ -8774,19 +8774,19 @@
         <v>175137</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>159857</v>
+        <v>158131</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>191776</v>
+        <v>190724</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.6888741951142696</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.6287754794318854</v>
+        <v>0.6219864976644672</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.7543236095627155</v>
+        <v>0.7501847878640135</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -8808,19 +8808,19 @@
         <v>175137</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>154245</v>
+        <v>154602</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>196702</v>
+        <v>196498</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.3784268116367093</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.33328415231155</v>
+        <v>0.3340555294787733</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.4250240957323405</v>
+        <v>0.4245828506075978</v>
       </c>
     </row>
     <row r="53">
@@ -8837,19 +8837,19 @@
         <v>59209</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>45174</v>
+        <v>45843</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>74664</v>
+        <v>74686</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.2328893107040376</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1776869286925408</v>
+        <v>0.1803151981817434</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2936813464342355</v>
+        <v>0.2937655396425243</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>188</v>
@@ -8858,19 +8858,19 @@
         <v>194248</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>184101</v>
+        <v>184336</v>
       </c>
       <c r="M53" s="5" t="n">
-        <v>200979</v>
+        <v>200746</v>
       </c>
       <c r="N53" s="6" t="n">
         <v>0.9313520406407935</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.8826973009930306</v>
+        <v>0.8838279075174825</v>
       </c>
       <c r="P53" s="6" t="n">
-        <v>0.9636233838381359</v>
+        <v>0.9625059565851375</v>
       </c>
       <c r="Q53" s="5" t="n">
         <v>239</v>
@@ -8879,19 +8879,19 @@
         <v>253457</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>232543</v>
+        <v>229897</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>275103</v>
+        <v>274835</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.5476578540800763</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.5024685454439091</v>
+        <v>0.496751279574115</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.594429618135254</v>
+        <v>0.593849011881044</v>
       </c>
     </row>
     <row r="54">
@@ -8958,7 +8958,7 @@
         <v>0</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>6758</v>
+        <v>7471</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.008427883937123237</v>
@@ -8967,7 +8967,7 @@
         <v>0</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.02658309267874592</v>
+        <v>0.02938657894869712</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>1</v>
@@ -8979,7 +8979,7 @@
         <v>0</v>
       </c>
       <c r="M55" s="5" t="n">
-        <v>11588</v>
+        <v>7281</v>
       </c>
       <c r="N55" s="6" t="n">
         <v>0.008652777544432149</v>
@@ -8988,7 +8988,7 @@
         <v>0</v>
       </c>
       <c r="P55" s="6" t="n">
-        <v>0.05556066528368249</v>
+        <v>0.03490916089863963</v>
       </c>
       <c r="Q55" s="5" t="n">
         <v>3</v>
@@ -8997,19 +8997,19 @@
         <v>3947</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>13635</v>
+        <v>10976</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.008529234274303889</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.00225628233430562</v>
+        <v>0.002221723612331644</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02946260973266715</v>
+        <v>0.02371642942194544</v>
       </c>
     </row>
     <row r="56">
@@ -9026,19 +9026,19 @@
         <v>14622</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>8146</v>
+        <v>7434</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>25612</v>
+        <v>25679</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.05751452010907561</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.03204205619662255</v>
+        <v>0.02924175285880237</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1007396723191024</v>
+        <v>0.101002935417631</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>11</v>
@@ -9047,19 +9047,19 @@
         <v>10861</v>
       </c>
       <c r="L56" s="5" t="n">
-        <v>5765</v>
+        <v>5776</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>20081</v>
+        <v>18598</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.0520748381203125</v>
       </c>
       <c r="O56" s="6" t="n">
-        <v>0.02764086252728381</v>
+        <v>0.02769305260770765</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.09628294656906591</v>
+        <v>0.08917107193220748</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>22</v>
@@ -9068,19 +9068,19 @@
         <v>25483</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>16108</v>
+        <v>16373</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>39078</v>
+        <v>38775</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.05506307824590436</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.03480599134042468</v>
+        <v>0.03537851725008562</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.08443717267942982</v>
+        <v>0.08378402580493657</v>
       </c>
     </row>
     <row r="57">
@@ -9222,7 +9222,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>6803</v>
+        <v>7001</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.01193976298709915</v>
@@ -9231,7 +9231,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.04005078929355404</v>
+        <v>0.04121542003016545</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>0</v>
@@ -9256,7 +9256,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>7080</v>
+        <v>7003</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.006455237783599782</v>
@@ -9265,7 +9265,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.02253226240538082</v>
+        <v>0.02228927970961398</v>
       </c>
     </row>
     <row r="60">
@@ -9285,7 +9285,7 @@
         <v>0</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>5318</v>
+        <v>6141</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.006184779168598622</v>
@@ -9294,7 +9294,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.03130500569608318</v>
+        <v>0.03615019613082665</v>
       </c>
       <c r="J60" s="5" t="n">
         <v>0</v>
@@ -9319,7 +9319,7 @@
         <v>0</v>
       </c>
       <c r="T60" s="5" t="n">
-        <v>5275</v>
+        <v>5161</v>
       </c>
       <c r="U60" s="6" t="n">
         <v>0.003343803408450954</v>
@@ -9328,7 +9328,7 @@
         <v>0</v>
       </c>
       <c r="W60" s="6" t="n">
-        <v>0.01678821302606808</v>
+        <v>0.01642595286088652</v>
       </c>
     </row>
     <row r="61">
@@ -9345,19 +9345,19 @@
         <v>113245</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>99549</v>
+        <v>100129</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>125565</v>
+        <v>125420</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.6666542732451424</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.5860318668738396</v>
+        <v>0.5894442553394826</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.7391817702854989</v>
+        <v>0.7383307181113918</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>0</v>
@@ -9379,19 +9379,19 @@
         <v>113244</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>97081</v>
+        <v>94350</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>131184</v>
+        <v>130401</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.3604269077954153</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.3089826053819243</v>
+        <v>0.3002897166365158</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.4175249929690681</v>
+        <v>0.4150318642993419</v>
       </c>
     </row>
     <row r="62">
@@ -9408,19 +9408,19 @@
         <v>51501</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>40163</v>
+        <v>39538</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>65939</v>
+        <v>64326</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.3031785591357641</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.2364365572204715</v>
+        <v>0.232752635276118</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.3881728049388687</v>
+        <v>0.3786798216510234</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>129</v>
@@ -9429,7 +9429,7 @@
         <v>142193</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>136829</v>
+        <v>136994</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>144325</v>
@@ -9438,7 +9438,7 @@
         <v>0.9852303554571076</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.9480611262107042</v>
+        <v>0.9492056271090996</v>
       </c>
       <c r="P62" s="6" t="n">
         <v>1</v>
@@ -9450,19 +9450,19 @@
         <v>193695</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>175286</v>
+        <v>176086</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>209839</v>
+        <v>211944</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.6164787704597464</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.5578876947708845</v>
+        <v>0.5604360486446712</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.6678609655578753</v>
+        <v>0.6745619968943862</v>
       </c>
     </row>
     <row r="63">
@@ -9576,7 +9576,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>7348</v>
+        <v>6224</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.01204262546339576</v>
@@ -9585,7 +9585,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.04325952832142699</v>
+        <v>0.03663966686186425</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>2</v>
@@ -9597,7 +9597,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>7496</v>
+        <v>7331</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.01476964454289238</v>
@@ -9606,7 +9606,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05193887378929584</v>
+        <v>0.0507943728909003</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>4</v>
@@ -9615,19 +9615,19 @@
         <v>4177</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>1058</v>
+        <v>1079</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>9587</v>
+        <v>10002</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.01329528055278767</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.003368405425275347</v>
+        <v>0.003434873436332815</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.03051267572508741</v>
+        <v>0.03183483436188345</v>
       </c>
     </row>
     <row r="66">
@@ -9719,19 +9719,19 @@
         <v>6324</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1335</v>
+        <v>1897</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>15386</v>
+        <v>18161</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.002857795363263976</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.0006034238936828362</v>
+        <v>0.0008570134587363209</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.006952467239437477</v>
+        <v>0.008206611917421468</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>3</v>
@@ -9740,19 +9740,19 @@
         <v>3932</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>11351</v>
+        <v>12027</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.001715962505506526</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.0004350668499248572</v>
+        <v>0.0004346374386918178</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.004953380202058913</v>
+        <v>0.005248474303804134</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>7</v>
@@ -9761,19 +9761,19 @@
         <v>10256</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>4459</v>
+        <v>4206</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>21053</v>
+        <v>21100</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.002276918126978898</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.0009898332975318124</v>
+        <v>0.0009336701756871165</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.004673811931364453</v>
+        <v>0.004684163105698282</v>
       </c>
     </row>
     <row r="68">
@@ -9790,19 +9790,19 @@
         <v>16574</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>9459</v>
+        <v>9327</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>27561</v>
+        <v>28867</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.007489550342201109</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.004274186729666438</v>
+        <v>0.004214685772646739</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.01245437907989638</v>
+        <v>0.01304453871829101</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>49</v>
@@ -9811,19 +9811,19 @@
         <v>57892</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>44789</v>
+        <v>43313</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>78890</v>
+        <v>76514</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.0252633989628746</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.01954541603934339</v>
+        <v>0.01890097469422991</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.03442643319476714</v>
+        <v>0.03338969315125133</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>64</v>
@@ -9832,19 +9832,19 @@
         <v>74467</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>56834</v>
+        <v>56764</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>93604</v>
+        <v>95852</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.01653152526417282</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.01261709503885872</v>
+        <v>0.0126015791984933</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.02077990714783375</v>
+        <v>0.02127908965705414</v>
       </c>
     </row>
     <row r="69">
@@ -9861,19 +9861,19 @@
         <v>21917</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>13828</v>
+        <v>13416</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>34417</v>
+        <v>33665</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.009904054782636026</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.006248611285763616</v>
+        <v>0.006062643660316307</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.01555224744891788</v>
+        <v>0.01521254801831183</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>8</v>
@@ -9882,19 +9882,19 @@
         <v>9686</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>3910</v>
+        <v>3867</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>20299</v>
+        <v>19168</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.004226690017748246</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.001706138692982574</v>
+        <v>0.001687467346077703</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.008858135321663916</v>
+        <v>0.008364806932910781</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>28</v>
@@ -9903,19 +9903,19 @@
         <v>31603</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>20801</v>
+        <v>21447</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>43611</v>
+        <v>46420</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.007015845767100034</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.004617785260523977</v>
+        <v>0.004761208053956012</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.009681551415995412</v>
+        <v>0.01030523452726941</v>
       </c>
     </row>
     <row r="70">
@@ -9932,19 +9932,19 @@
         <v>963451</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>914299</v>
+        <v>914906</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>1009065</v>
+        <v>1012932</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.4353665207672515</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.413155594100915</v>
+        <v>0.4134300927881592</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.4559787934145794</v>
+        <v>0.4577262455536648</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>3</v>
@@ -9953,19 +9953,19 @@
         <v>4039</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>11093</v>
+        <v>11847</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.001762654937366909</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.0004516302869710632</v>
+        <v>0.0004522162121675466</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.004840946509864512</v>
+        <v>0.005169858358593963</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>906</v>
@@ -9974,19 +9974,19 @@
         <v>967490</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>911802</v>
+        <v>912368</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>1019439</v>
+        <v>1026282</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.2147820337167907</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.2024192894603819</v>
+        <v>0.2025450523477382</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.2263147182678281</v>
+        <v>0.2278337852184942</v>
       </c>
     </row>
     <row r="71">
@@ -10003,19 +10003,19 @@
         <v>124428</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>101270</v>
+        <v>104489</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>150232</v>
+        <v>147913</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.05622695228014151</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.04576214621746504</v>
+        <v>0.04721655847093346</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.06788713797416299</v>
+        <v>0.06683920174083219</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>502</v>
@@ -10024,19 +10024,19 @@
         <v>539615</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>498558</v>
+        <v>502690</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>582307</v>
+        <v>586524</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.2354796640765356</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.2175630535474209</v>
+        <v>0.2193663365220342</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.2541099450960167</v>
+        <v>0.2559500851269124</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>612</v>
@@ -10045,19 +10045,19 @@
         <v>664043</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>616687</v>
+        <v>618973</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>715698</v>
+        <v>718356</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.147417023679377</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.1369040217350327</v>
+        <v>0.137411587069364</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.1588844329587111</v>
+        <v>0.1594745052767472</v>
       </c>
     </row>
     <row r="72">
@@ -10074,19 +10074,19 @@
         <v>6819</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>2864</v>
+        <v>2892</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>12769</v>
+        <v>13527</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.003081539689729342</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.001294087258917533</v>
+        <v>0.001306865630302923</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.005770095444742035</v>
+        <v>0.006112627847442633</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>3</v>
@@ -10095,19 +10095,19 @@
         <v>3311</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>990</v>
+        <v>987</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>9786</v>
+        <v>9693</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.001444844574972835</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.0004320532820039897</v>
+        <v>0.0004305674868893741</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.004270556303095024</v>
+        <v>0.004229775924256586</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>10</v>
@@ -10116,19 +10116,19 @@
         <v>10130</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>5145</v>
+        <v>5048</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>17582</v>
+        <v>18324</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.00224891438170637</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.001142225379485314</v>
+        <v>0.001120655170394288</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.00390318010966293</v>
+        <v>0.004067812041208625</v>
       </c>
     </row>
     <row r="73">
@@ -10145,19 +10145,19 @@
         <v>280759</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>249768</v>
+        <v>252010</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>313625</v>
+        <v>320149</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.1268701117522707</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.1128657665353993</v>
+        <v>0.1138789320026888</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.1417214254408375</v>
+        <v>0.1446695367862486</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>292</v>
@@ -10166,19 +10166,19 @@
         <v>317195</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>286454</v>
+        <v>285355</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>351427</v>
+        <v>350450</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.1384189460487218</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.1250043863605133</v>
+        <v>0.1245247262942918</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.153357437513142</v>
+        <v>0.1529311339636082</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>552</v>
@@ -10187,19 +10187,19 @@
         <v>597954</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>549637</v>
+        <v>552597</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>647303</v>
+        <v>647589</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.1327452754444526</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.1220190040556708</v>
+        <v>0.1226760682595207</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.143700877412315</v>
+        <v>0.1437643083773838</v>
       </c>
     </row>
     <row r="74">
@@ -10216,19 +10216,19 @@
         <v>792692</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>746009</v>
+        <v>742751</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>846237</v>
+        <v>836023</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.3582034750225059</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.3371082548974326</v>
+        <v>0.335636019163283</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.382399601711052</v>
+        <v>0.3777842067243294</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>1250</v>
@@ -10237,19 +10237,19 @@
         <v>1355885</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>1305279</v>
+        <v>1305421</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>1401942</v>
+        <v>1399331</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.5916878388762734</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.5696042359532474</v>
+        <v>0.5696658835699411</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.611786218159615</v>
+        <v>0.610646801437412</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>1983</v>
@@ -10258,19 +10258,19 @@
         <v>2148577</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>2074358</v>
+        <v>2081087</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>2216686</v>
+        <v>2219578</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.4769824636194216</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.4605057930849399</v>
+        <v>0.4619996529447443</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.4921026679423204</v>
+        <v>0.492744684188099</v>
       </c>
     </row>
     <row r="75">
@@ -10621,7 +10621,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6333</v>
+        <v>6252</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02431676601439696</v>
@@ -10630,7 +10630,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07844641165012174</v>
+        <v>0.07744297416596291</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>2</v>
@@ -10642,7 +10642,7 @@
         <v>0</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>7550</v>
+        <v>6821</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01637802324049094</v>
@@ -10651,7 +10651,7 @@
         <v>0</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0629946640822158</v>
+        <v>0.05690787236202996</v>
       </c>
     </row>
     <row r="5">
@@ -10671,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7558</v>
+        <v>8975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.04594316367103753</v>
@@ -10680,7 +10680,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1931586285207204</v>
+        <v>0.2293835722000962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1</v>
@@ -10692,7 +10692,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>4298</v>
+        <v>4521</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.01102666843664808</v>
@@ -10701,7 +10701,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.0532458877759181</v>
+        <v>0.05600895048138461</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2</v>
@@ -10713,7 +10713,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>10321</v>
+        <v>9818</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02242592580779762</v>
@@ -10722,7 +10722,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.08611368735775365</v>
+        <v>0.08191761872278865</v>
       </c>
     </row>
     <row r="6">
@@ -10739,19 +10739,19 @@
         <v>2762</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>829</v>
+        <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>7430</v>
+        <v>6801</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.07058542007090886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.02118524167808278</v>
+        <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1898876556507139</v>
+        <v>0.1738141677658157</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -10760,19 +10760,19 @@
         <v>2815</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>7473</v>
+        <v>7371</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0348701993170006</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01130272963884651</v>
+        <v>0.01122722348664798</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0925701980773085</v>
+        <v>0.09131326994328393</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>6</v>
@@ -10781,19 +10781,19 @@
         <v>5577</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1904</v>
+        <v>1930</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>11285</v>
+        <v>11327</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.04653021819083763</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01588533351143731</v>
+        <v>0.01610709257839363</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.09415802201690616</v>
+        <v>0.09450548970651962</v>
       </c>
     </row>
     <row r="7">
@@ -10810,19 +10810,19 @@
         <v>7553</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3176</v>
+        <v>3253</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13210</v>
+        <v>13638</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1930303174416445</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.08115737886298524</v>
+        <v>0.08314186256718738</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3376149678869135</v>
+        <v>0.3485597326857859</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -10834,7 +10834,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>5376</v>
+        <v>5619</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01244137525681056</v>
@@ -10843,7 +10843,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.06659746552740446</v>
+        <v>0.06960188992283867</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>8</v>
@@ -10852,19 +10852,19 @@
         <v>8557</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>3260</v>
+        <v>4184</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>15887</v>
+        <v>16005</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.07139860497100764</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02720300744378111</v>
+        <v>0.03491037442811987</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1325512086100628</v>
+        <v>0.1335426890022531</v>
       </c>
     </row>
     <row r="8">
@@ -10897,7 +10897,7 @@
         <v>0</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>5860</v>
+        <v>5692</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02170073307520105</v>
@@ -10906,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.07259023146399382</v>
+        <v>0.07051637765389229</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2</v>
@@ -10918,7 +10918,7 @@
         <v>0</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>6068</v>
+        <v>7090</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01461605175749549</v>
@@ -10927,7 +10927,7 @@
         <v>0</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.05063230163488214</v>
+        <v>0.0591576725436947</v>
       </c>
     </row>
     <row r="9">
@@ -10947,7 +10947,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5123</v>
+        <v>5007</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.02578512900597852</v>
@@ -10956,7 +10956,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1309291667775185</v>
+        <v>0.1279570466249529</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>3</v>
@@ -10968,16 +10968,16 @@
         <v>991</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>8767</v>
+        <v>8148</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03810209823322772</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.01227349662550988</v>
+        <v>0.01227060015137252</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1086076000326287</v>
+        <v>0.1009349782279152</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>4</v>
@@ -10986,19 +10986,19 @@
         <v>4085</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>1020</v>
+        <v>1014</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>9194</v>
+        <v>10085</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03408095288884455</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.008506456939719629</v>
+        <v>0.008461036022724419</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.0767120548090361</v>
+        <v>0.08414401849493393</v>
       </c>
     </row>
     <row r="10">
@@ -11015,19 +11015,19 @@
         <v>12811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7393</v>
+        <v>7344</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19568</v>
+        <v>18505</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3274184308702134</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1889515915351136</v>
+        <v>0.1876996261947317</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.5000969346000885</v>
+        <v>0.472923455099122</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>20</v>
@@ -11036,19 +11036,19 @@
         <v>20427</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13180</v>
+        <v>13728</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>28033</v>
+        <v>28506</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2530432249408236</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1632743296134077</v>
+        <v>0.1700637243952678</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.347268832198621</v>
+        <v>0.3531288871710601</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>32</v>
@@ -11057,19 +11057,19 @@
         <v>33238</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24004</v>
+        <v>23795</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42941</v>
+        <v>43054</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2773246457629895</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.200279956809688</v>
+        <v>0.1985328054478362</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3582866545369521</v>
+        <v>0.3592224361782409</v>
       </c>
     </row>
     <row r="11">
@@ -11086,19 +11086,19 @@
         <v>13195</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>7924</v>
+        <v>7646</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>19370</v>
+        <v>19252</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3372375389402171</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2025273639181942</v>
+        <v>0.1954022687346975</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4950395472257772</v>
+        <v>0.4920324794115067</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>50</v>
@@ -11107,19 +11107,19 @@
         <v>48798</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>40763</v>
+        <v>40193</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>57574</v>
+        <v>56811</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6044989347258914</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5049736770391736</v>
+        <v>0.4979003446259262</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7132227380616304</v>
+        <v>0.7037652317860645</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>63</v>
@@ -11128,19 +11128,19 @@
         <v>61993</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>51732</v>
+        <v>51270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>73734</v>
+        <v>73269</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5172455773805366</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.4316314912668723</v>
+        <v>0.4277784113643069</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6152063794724707</v>
+        <v>0.6113289415061045</v>
       </c>
     </row>
     <row r="12">
@@ -11235,7 +11235,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8338</v>
+        <v>8857</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00782093201638445</v>
@@ -11244,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02602868393753109</v>
+        <v>0.02764785742475519</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -11256,7 +11256,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>4881</v>
+        <v>4933</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.002874170948652187</v>
@@ -11265,7 +11265,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.01429988985953854</v>
+        <v>0.01445345612704126</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -11274,19 +11274,19 @@
         <v>3486</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>10232</v>
+        <v>10387</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.005269168882055301</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001482762563324361</v>
+        <v>0.00148359874281875</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01546384738510036</v>
+        <v>0.01569736008829787</v>
       </c>
     </row>
     <row r="14">
@@ -11306,7 +11306,7 @@
         <v>0</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>8346</v>
+        <v>8719</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.004940468314328658</v>
@@ -11315,7 +11315,7 @@
         <v>0</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.02605201746382145</v>
+        <v>0.02721770416283363</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>2</v>
@@ -11327,7 +11327,7 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>6053</v>
+        <v>6093</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.005118281367353384</v>
@@ -11336,7 +11336,7 @@
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.017734000575814</v>
+        <v>0.01785173320510466</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>3</v>
@@ -11345,19 +11345,19 @@
         <v>3330</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>842</v>
+        <v>744</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>11934</v>
+        <v>9576</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.005032192330770595</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.001272703088038756</v>
+        <v>0.001124515041946908</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.01803645548694573</v>
+        <v>0.01447281470691915</v>
       </c>
     </row>
     <row r="15">
@@ -11374,19 +11374,19 @@
         <v>9288</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>4800</v>
+        <v>4746</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17439</v>
+        <v>16841</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02899224654585824</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01498336362664789</v>
+        <v>0.01481498594906948</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05443726715950937</v>
+        <v>0.05256936588688239</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -11398,7 +11398,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>4622</v>
+        <v>4951</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.002860557971260842</v>
@@ -11407,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.0135428609693673</v>
+        <v>0.01450631325086948</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>10</v>
@@ -11416,19 +11416,19 @@
         <v>10264</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>5311</v>
+        <v>5448</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>17848</v>
+        <v>18546</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.01551233946536592</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.008027140617228565</v>
+        <v>0.008232953503693382</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02697416951406822</v>
+        <v>0.02802876936821587</v>
       </c>
     </row>
     <row r="16">
@@ -11445,19 +11445,19 @@
         <v>67833</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>53583</v>
+        <v>54548</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>84546</v>
+        <v>83076</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2117448806819762</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1672602907602467</v>
+        <v>0.1702728081785752</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2639133955394806</v>
+        <v>0.2593249800100694</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -11479,19 +11479,19 @@
         <v>67833</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>52618</v>
+        <v>52775</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>83954</v>
+        <v>85484</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1025172925674585</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.07952234845031005</v>
+        <v>0.07975990919912533</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.1268813124398636</v>
+        <v>0.1291923508425692</v>
       </c>
     </row>
     <row r="17">
@@ -11524,7 +11524,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7479</v>
+        <v>7411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.004353392510405994</v>
@@ -11533,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.02191056582340611</v>
+        <v>0.02171246103863693</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -11545,7 +11545,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7439</v>
+        <v>7380</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.00224567679037129</v>
@@ -11554,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.01124215512790214</v>
+        <v>0.01115417596907484</v>
       </c>
     </row>
     <row r="18">
@@ -11574,7 +11574,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5892</v>
+        <v>6246</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.005575501283512929</v>
@@ -11583,7 +11583,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.01839356256426488</v>
+        <v>0.01949672073023143</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>1</v>
@@ -11595,7 +11595,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>4567</v>
+        <v>4276</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.002475241883534483</v>
@@ -11604,7 +11604,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.01338045110131992</v>
+        <v>0.01252891105432747</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>3</v>
@@ -11613,19 +11613,19 @@
         <v>2631</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>845</v>
+        <v>841</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>7193</v>
+        <v>7759</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.003976247239219843</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.001277625448033494</v>
+        <v>0.001271268030594754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.01087148111935524</v>
+        <v>0.01172634192810691</v>
       </c>
     </row>
     <row r="19">
@@ -11642,19 +11642,19 @@
         <v>79667</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>64107</v>
+        <v>63319</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>95157</v>
+        <v>97425</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2486851354936194</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2001141876191199</v>
+        <v>0.197653590607448</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2970384554659974</v>
+        <v>0.3041154960720804</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>50</v>
@@ -11663,19 +11663,19 @@
         <v>49323</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>38174</v>
+        <v>37551</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>63316</v>
+        <v>63169</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1445048079911552</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1118413276654236</v>
+        <v>0.1100171511408619</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1855008526750529</v>
+        <v>0.1850719778352335</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>124</v>
@@ -11684,19 +11684,19 @@
         <v>128990</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>107008</v>
+        <v>108520</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>151191</v>
+        <v>149034</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1949442097842247</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1617226649248247</v>
+        <v>0.164006981699648</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2284963538791747</v>
+        <v>0.2252364747881481</v>
       </c>
     </row>
     <row r="20">
@@ -11713,19 +11713,19 @@
         <v>157691</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>140100</v>
+        <v>138940</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>178231</v>
+        <v>175993</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.4922408356643201</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.437327252741099</v>
+        <v>0.4337078857848253</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.5563560157623021</v>
+        <v>0.5493716274717323</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>294</v>
@@ -11734,19 +11734,19 @@
         <v>285965</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>271163</v>
+        <v>271718</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>297804</v>
+        <v>298158</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8378135473276379</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7944477097354417</v>
+        <v>0.7960728619870872</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8724983418301326</v>
+        <v>0.8735352485834885</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>444</v>
@@ -11755,19 +11755,19 @@
         <v>443656</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>416972</v>
+        <v>419379</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>468154</v>
+        <v>465260</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6705028729405338</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6301749339197401</v>
+        <v>0.6338118880290506</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.707525758401553</v>
+        <v>0.7031521834141978</v>
       </c>
     </row>
     <row r="21">
@@ -11862,7 +11862,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>5550</v>
+        <v>4656</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.001844009612625682</v>
@@ -11871,7 +11871,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01111464205849509</v>
+        <v>0.009322917879029651</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2</v>
@@ -11883,7 +11883,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>7242</v>
+        <v>5867</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.003673116924330484</v>
@@ -11892,7 +11892,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01382132823120854</v>
+        <v>0.01119798318089248</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -11901,19 +11901,19 @@
         <v>2845</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7539</v>
+        <v>8550</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.002780550664360842</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0008967479006720148</v>
+        <v>0.0008995362559765341</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.007367339888895295</v>
+        <v>0.008354764850973919</v>
       </c>
     </row>
     <row r="23">
@@ -11933,7 +11933,7 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8739</v>
+        <v>7963</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.00318341959305544</v>
@@ -11942,7 +11942,7 @@
         <v>0</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.01750004719906486</v>
+        <v>0.01594570744225879</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>9</v>
@@ -11951,19 +11951,19 @@
         <v>9387</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>4496</v>
+        <v>4772</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>16201</v>
+        <v>18261</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01791548519684959</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.008581042081350557</v>
+        <v>0.009108103276047053</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03091910929126802</v>
+        <v>0.03485162476879207</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>10</v>
@@ -11972,19 +11972,19 @@
         <v>10977</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5490</v>
+        <v>5493</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>19981</v>
+        <v>19658</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.01072654411424562</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.005365098768006543</v>
+        <v>0.005367934826206686</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.01952546260746369</v>
+        <v>0.01920997613347628</v>
       </c>
     </row>
     <row r="24">
@@ -12004,16 +12004,16 @@
         <v>970</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>9816</v>
+        <v>9606</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.007745241834100792</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.001941508096292539</v>
+        <v>0.001942188547295406</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.01965608396265406</v>
+        <v>0.01923647682528092</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -12025,7 +12025,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8527</v>
+        <v>6611</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.002931650019891544</v>
@@ -12034,7 +12034,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.01627292901962105</v>
+        <v>0.01261674935977841</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>5</v>
@@ -12043,19 +12043,19 @@
         <v>5404</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1891</v>
+        <v>1880</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>12827</v>
+        <v>12245</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.005280582537483838</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.001847587430428865</v>
+        <v>0.001837134120652032</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.01253431140366859</v>
+        <v>0.01196530485854804</v>
       </c>
     </row>
     <row r="25">
@@ -12072,19 +12072,19 @@
         <v>136468</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>117949</v>
+        <v>117684</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>156006</v>
+        <v>156008</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2732826190853595</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2361981325390242</v>
+        <v>0.2356667012374742</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3124089322700236</v>
+        <v>0.3124118358843135</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -12106,19 +12106,19 @@
         <v>136468</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>115261</v>
+        <v>116823</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>162010</v>
+        <v>160903</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1333562244657924</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1126329050305167</v>
+        <v>0.1141592569107419</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1583159299366204</v>
+        <v>0.1572339976934319</v>
       </c>
     </row>
     <row r="26">
@@ -12138,7 +12138,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5117</v>
+        <v>4922</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.002042036648670974</v>
@@ -12147,7 +12147,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.01024751609394376</v>
+        <v>0.009856134530396387</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -12156,19 +12156,19 @@
         <v>8078</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3795</v>
+        <v>3814</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15959</v>
+        <v>15033</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01541725400621994</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.007243044007636004</v>
+        <v>0.007279420999056493</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03045880043502446</v>
+        <v>0.02869029243101053</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>9</v>
@@ -12177,19 +12177,19 @@
         <v>9098</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4299</v>
+        <v>4728</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>16960</v>
+        <v>17294</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.008890426598821097</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.004201284589331129</v>
+        <v>0.004619713421728185</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01657278748675163</v>
+        <v>0.01689996578970073</v>
       </c>
     </row>
     <row r="27">
@@ -12253,19 +12253,19 @@
         <v>118972</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>101246</v>
+        <v>99519</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>138821</v>
+        <v>139629</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.2382463601769123</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2027492263090838</v>
+        <v>0.1992898234148393</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2779950782461316</v>
+        <v>0.2796115978631419</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>95</v>
@@ -12274,19 +12274,19 @@
         <v>93014</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>77213</v>
+        <v>77338</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>112061</v>
+        <v>110917</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.1775182271561686</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1473621472943337</v>
+        <v>0.1476003461051847</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.2138701815063604</v>
+        <v>0.2116869884261138</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>211</v>
@@ -12295,19 +12295,19 @@
         <v>211986</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>187918</v>
+        <v>189159</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>237078</v>
+        <v>241097</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2071522908430848</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.1836332901196705</v>
+        <v>0.1848452009441761</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2316719717106424</v>
+        <v>0.2355994417623907</v>
       </c>
     </row>
     <row r="29">
@@ -12324,19 +12324,19 @@
         <v>236528</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>213923</v>
+        <v>213099</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>261127</v>
+        <v>255772</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.4736563130492752</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.4283892750640388</v>
+        <v>0.4267391475233207</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.5229168895982943</v>
+        <v>0.5121928455243469</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>408</v>
@@ -12345,19 +12345,19 @@
         <v>410029</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>388210</v>
+        <v>390135</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>426234</v>
+        <v>427363</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7825442666965399</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7409030947598637</v>
+        <v>0.7445761942085246</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8134713592639395</v>
+        <v>0.815626692078114</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>627</v>
@@ -12366,19 +12366,19 @@
         <v>646557</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>615701</v>
+        <v>614761</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>676813</v>
+        <v>676441</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.6318133807762114</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.6016609191596296</v>
+        <v>0.6007422777104162</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.6613796225948092</v>
+        <v>0.6610159762395601</v>
       </c>
     </row>
     <row r="30">
@@ -12486,7 +12486,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>5487</v>
+        <v>4594</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.001862138526990851</v>
@@ -12495,7 +12495,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0111762845243135</v>
+        <v>0.009357050730590174</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -12507,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4816</v>
+        <v>5512</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.0009427138122691485</v>
@@ -12516,7 +12516,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.004966391919480227</v>
+        <v>0.005683772913326385</v>
       </c>
     </row>
     <row r="32">
@@ -12533,19 +12533,19 @@
         <v>2926</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>8016</v>
+        <v>7900</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.006111736156087095</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0019436410397744</v>
+        <v>0.001930967987091283</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.01674170993118836</v>
+        <v>0.01650030543396485</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>5</v>
@@ -12554,19 +12554,19 @@
         <v>5204</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>2047</v>
+        <v>2052</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>11492</v>
+        <v>11578</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.01060048945821091</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.004170015151101428</v>
+        <v>0.004179724920792035</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.02340889090768024</v>
+        <v>0.02358383046095153</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>8</v>
@@ -12575,19 +12575,19 @@
         <v>8130</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>3991</v>
+        <v>3116</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>15088</v>
+        <v>15557</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.008384182419587698</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.004115194225005859</v>
+        <v>0.003213348613377627</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.01555935917974418</v>
+        <v>0.01604281486527844</v>
       </c>
     </row>
     <row r="33">
@@ -12651,19 +12651,19 @@
         <v>200090</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>178982</v>
+        <v>177903</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>224961</v>
+        <v>221303</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4178961677770595</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.3738096704600965</v>
+        <v>0.3715563302520308</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4698404264348117</v>
+        <v>0.46219991860617</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>1</v>
@@ -12675,7 +12675,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>5465</v>
+        <v>5430</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.002209602612201515</v>
@@ -12684,7 +12684,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01113276516362564</v>
+        <v>0.01106115585267044</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>184</v>
@@ -12693,19 +12693,19 @@
         <v>201175</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>177669</v>
+        <v>175040</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>229249</v>
+        <v>228756</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2074534639311299</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1832142439509536</v>
+        <v>0.1805028154740675</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.2364037270212915</v>
+        <v>0.2358955631593907</v>
       </c>
     </row>
     <row r="35">
@@ -12722,19 +12722,19 @@
         <v>3279</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8811</v>
+        <v>8758</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.006847749567567105</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.002056093602786785</v>
+        <v>0.002042966238882841</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.01840275489313394</v>
+        <v>0.01829128102747792</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>26</v>
@@ -12743,19 +12743,19 @@
         <v>27698</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>19486</v>
+        <v>17952</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>39918</v>
+        <v>38747</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.0564190133118143</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03969219892893416</v>
+        <v>0.03656808853062837</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.0813112099201443</v>
+        <v>0.07892448547917071</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>29</v>
@@ -12764,19 +12764,19 @@
         <v>30977</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>20971</v>
+        <v>21864</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>42824</v>
+        <v>42798</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03194336643279311</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.02162511853177832</v>
+        <v>0.02254624434728654</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0441607830508089</v>
+        <v>0.04413319501150942</v>
       </c>
     </row>
     <row r="36">
@@ -12840,19 +12840,19 @@
         <v>85319</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>68833</v>
+        <v>67964</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>103669</v>
+        <v>102585</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1781922620420989</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1437603572799452</v>
+        <v>0.1419449236172659</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2165155682631892</v>
+        <v>0.2142528953442274</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>103</v>
@@ -12861,19 +12861,19 @@
         <v>108971</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>91358</v>
+        <v>90597</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>129290</v>
+        <v>129188</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.221967779932489</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.186091118404049</v>
+        <v>0.1845418281751032</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2633563175998784</v>
+        <v>0.2631487492647956</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>179</v>
@@ -12882,19 +12882,19 @@
         <v>194290</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>169161</v>
+        <v>169233</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>222333</v>
+        <v>223894</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2003537633248167</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1744401130570689</v>
+        <v>0.1745142217199908</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2292714985722299</v>
+        <v>0.2308810934737226</v>
       </c>
     </row>
     <row r="38">
@@ -12911,19 +12911,19 @@
         <v>187189</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>166262</v>
+        <v>167035</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>210699</v>
+        <v>211373</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.3909520844571875</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3472449600938554</v>
+        <v>0.3488579670748568</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.4400519565321153</v>
+        <v>0.4414595332172782</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>322</v>
@@ -12932,19 +12932,19 @@
         <v>347060</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>326343</v>
+        <v>327279</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>367087</v>
+        <v>367083</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.7069409761582934</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.6647425265111835</v>
+        <v>0.6666492694263859</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.7477348389863957</v>
+        <v>0.7477258759865986</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>488</v>
@@ -12953,19 +12953,19 @@
         <v>534249</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>502970</v>
+        <v>500652</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>569644</v>
+        <v>565395</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.5509225100794035</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.5186668169921327</v>
+        <v>0.5162763206223084</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.5874213245495434</v>
+        <v>0.5830397552123772</v>
       </c>
     </row>
     <row r="39">
@@ -13060,7 +13060,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6098</v>
+        <v>6362</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.002881275048307833</v>
@@ -13069,7 +13069,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01585585835655245</v>
+        <v>0.01654336736508131</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -13078,19 +13078,19 @@
         <v>3458</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>1115</v>
+        <v>1111</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>10104</v>
+        <v>9332</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01041536811996823</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.003357351354839788</v>
+        <v>0.003345343348750015</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03042968010758206</v>
+        <v>0.02810456051513402</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -13099,19 +13099,19 @@
         <v>4566</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1119</v>
+        <v>1165</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10428</v>
+        <v>11455</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.006372060971363299</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.00156150292074382</v>
+        <v>0.001625499925584105</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.0145522891781568</v>
+        <v>0.01598519107781695</v>
       </c>
     </row>
     <row r="41">
@@ -13128,19 +13128,19 @@
         <v>8317</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3240</v>
+        <v>3005</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18036</v>
+        <v>15748</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.02162623601245277</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.008423851018223256</v>
+        <v>0.007812598836045377</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04689638347451469</v>
+        <v>0.04094757298691574</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>5</v>
@@ -13149,19 +13149,19 @@
         <v>5456</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2074</v>
+        <v>2152</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>12171</v>
+        <v>11927</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01643309605689902</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006245741405129198</v>
+        <v>0.006481785763127114</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0366549654868748</v>
+        <v>0.0359206815291477</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>12</v>
@@ -13170,19 +13170,19 @@
         <v>13774</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>7575</v>
+        <v>7253</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>24440</v>
+        <v>23094</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01922008842695331</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.01057037006650476</v>
+        <v>0.01012094669438511</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.03410461296180477</v>
+        <v>0.03222670237545303</v>
       </c>
     </row>
     <row r="42">
@@ -13202,7 +13202,7 @@
         <v>0</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>8386</v>
+        <v>7980</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.003056305750327034</v>
@@ -13211,7 +13211,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.0218052382433265</v>
+        <v>0.02075069984039841</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>0</v>
@@ -13236,7 +13236,7 @@
         <v>0</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>6834</v>
+        <v>5524</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.00164022169238961</v>
@@ -13245,7 +13245,7 @@
         <v>0</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.009536940878248561</v>
+        <v>0.007708918491118652</v>
       </c>
     </row>
     <row r="43">
@@ -13262,19 +13262,19 @@
         <v>234899</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>213406</v>
+        <v>213106</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>253524</v>
+        <v>253806</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.610780964960027</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.554895630718502</v>
+        <v>0.5541156606929915</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.6592090503332756</v>
+        <v>0.6599428665268517</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>0</v>
@@ -13296,19 +13296,19 @@
         <v>234899</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>209639</v>
+        <v>210179</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>263053</v>
+        <v>261935</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3277866384666839</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.2925383685547835</v>
+        <v>0.2932910655923086</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.367073611193179</v>
+        <v>0.365514078684704</v>
       </c>
     </row>
     <row r="44">
@@ -13325,19 +13325,19 @@
         <v>8743</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>4135</v>
+        <v>4209</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>16693</v>
+        <v>17185</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.02273220375816502</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.01075049444876233</v>
+        <v>0.01094309160458894</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.04340566779249362</v>
+        <v>0.04468511366644976</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>147</v>
@@ -13346,19 +13346,19 @@
         <v>168567</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>149823</v>
+        <v>149810</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>186907</v>
+        <v>187266</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.5076785753184457</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4512264240134938</v>
+        <v>0.4511894618995231</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.5629160078946092</v>
+        <v>0.5639965635968478</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>155</v>
@@ -13367,19 +13367,19 @@
         <v>177309</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>153136</v>
+        <v>149790</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>203240</v>
+        <v>200710</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2474233445733895</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.213691157724631</v>
+        <v>0.2090226139786053</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.283608715425724</v>
+        <v>0.2800776660696033</v>
       </c>
     </row>
     <row r="45">
@@ -13443,19 +13443,19 @@
         <v>35915</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>25841</v>
+        <v>25090</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>50075</v>
+        <v>48788</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.09338675403931641</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.06719191146722656</v>
+        <v>0.06523868107586198</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.1302044530582076</v>
+        <v>0.1268566152379928</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>31</v>
@@ -13464,19 +13464,19 @@
         <v>36648</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>25477</v>
+        <v>25366</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>50757</v>
+        <v>51815</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.1103746627934191</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.07672895103277773</v>
+        <v>0.07639599789497623</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.1528655683090647</v>
+        <v>0.1560521487422406</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>64</v>
@@ -13485,19 +13485,19 @@
         <v>72564</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>57174</v>
+        <v>57236</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>91952</v>
+        <v>92950</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.1012577946777755</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.07978205441121258</v>
+        <v>0.07986872915732598</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.1283125234186056</v>
+        <v>0.1297056508682627</v>
       </c>
     </row>
     <row r="47">
@@ -13514,19 +13514,19 @@
         <v>94430</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>76907</v>
+        <v>77007</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>112525</v>
+        <v>113041</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.2455362604314039</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1999724236996653</v>
+        <v>0.2002334880800239</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2925858190472285</v>
+        <v>0.293928744522352</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>105</v>
@@ -13535,19 +13535,19 @@
         <v>117905</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>100848</v>
+        <v>100196</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>136268</v>
+        <v>136656</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.3550982977112679</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.3037267377284161</v>
+        <v>0.3017646776913053</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.4104049696872191</v>
+        <v>0.4115730101600961</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>187</v>
@@ -13556,19 +13556,19 @@
         <v>212335</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>186723</v>
+        <v>187358</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>239722</v>
+        <v>241857</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.2962998511914448</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.260559604034243</v>
+        <v>0.2614456148639627</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.3345170682031853</v>
+        <v>0.3374953578235039</v>
       </c>
     </row>
     <row r="48">
@@ -13710,7 +13710,7 @@
         <v>0</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>5156</v>
+        <v>5723</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.003903744550159172</v>
@@ -13719,7 +13719,7 @@
         <v>0</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0196273624353627</v>
+        <v>0.02178723284152788</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>0</v>
@@ -13744,7 +13744,7 @@
         <v>0</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>5212</v>
+        <v>5122</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.002104827317850524</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.01069865309502135</v>
+        <v>0.01051324422579207</v>
       </c>
     </row>
     <row r="51">
@@ -13817,19 +13817,19 @@
         <v>198098</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>181938</v>
+        <v>184035</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>211144</v>
+        <v>211087</v>
       </c>
       <c r="G52" s="6" t="n">
         <v>0.7541460405068766</v>
       </c>
       <c r="H52" s="6" t="n">
-        <v>0.6926292112639784</v>
+        <v>0.7006097689947788</v>
       </c>
       <c r="I52" s="6" t="n">
-        <v>0.8038132992996814</v>
+        <v>0.8035956479531157</v>
       </c>
       <c r="J52" s="5" t="n">
         <v>0</v>
@@ -13851,19 +13851,19 @@
         <v>198098</v>
       </c>
       <c r="S52" s="5" t="n">
-        <v>175322</v>
+        <v>176800</v>
       </c>
       <c r="T52" s="5" t="n">
-        <v>220238</v>
+        <v>220658</v>
       </c>
       <c r="U52" s="6" t="n">
         <v>0.4066216852337224</v>
       </c>
       <c r="V52" s="6" t="n">
-        <v>0.3598714107451326</v>
+        <v>0.3629063881621464</v>
       </c>
       <c r="W52" s="6" t="n">
-        <v>0.4520678888917279</v>
+        <v>0.4529299187794326</v>
       </c>
     </row>
     <row r="53">
@@ -13880,19 +13880,19 @@
         <v>51076</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>40097</v>
+        <v>39821</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>65684</v>
+        <v>65091</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.1944425566167285</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.1526458062867575</v>
+        <v>0.1515981323622231</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.2500545121763155</v>
+        <v>0.2477971340852045</v>
       </c>
       <c r="J53" s="5" t="n">
         <v>208</v>
@@ -13901,7 +13901,7 @@
         <v>221643</v>
       </c>
       <c r="L53" s="5" t="n">
-        <v>214056</v>
+        <v>213699</v>
       </c>
       <c r="M53" s="5" t="n">
         <v>224501</v>
@@ -13910,7 +13910,7 @@
         <v>0.9872691660360268</v>
       </c>
       <c r="O53" s="6" t="n">
-        <v>0.9534752176970571</v>
+        <v>0.951882176285933</v>
       </c>
       <c r="P53" s="6" t="n">
         <v>1</v>
@@ -13922,19 +13922,19 @@
         <v>272719</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>251207</v>
+        <v>251327</v>
       </c>
       <c r="T53" s="5" t="n">
-        <v>297900</v>
+        <v>296717</v>
       </c>
       <c r="U53" s="6" t="n">
         <v>0.5597916289219489</v>
       </c>
       <c r="V53" s="6" t="n">
-        <v>0.515636952724063</v>
+        <v>0.5158825860372249</v>
       </c>
       <c r="W53" s="6" t="n">
-        <v>0.6114803407443561</v>
+        <v>0.6090520889454076</v>
       </c>
     </row>
     <row r="54">
@@ -13998,19 +13998,19 @@
         <v>4684</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1846</v>
+        <v>1839</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>11249</v>
+        <v>10449</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01783356674718999</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.007027971680887084</v>
+        <v>0.007001193177319212</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.04282526988874116</v>
+        <v>0.03977827099481335</v>
       </c>
       <c r="J55" s="5" t="n">
         <v>0</v>
@@ -14032,19 +14032,19 @@
         <v>4684</v>
       </c>
       <c r="S55" s="5" t="n">
-        <v>1840</v>
+        <v>1845</v>
       </c>
       <c r="T55" s="5" t="n">
-        <v>10442</v>
+        <v>10346</v>
       </c>
       <c r="U55" s="6" t="n">
         <v>0.009615531442154863</v>
       </c>
       <c r="V55" s="6" t="n">
-        <v>0.00377757190241626</v>
+        <v>0.003786424065528786</v>
       </c>
       <c r="W55" s="6" t="n">
-        <v>0.02143319578258452</v>
+        <v>0.02123698228493496</v>
       </c>
     </row>
     <row r="56">
@@ -14061,19 +14061,19 @@
         <v>7795</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>3816</v>
+        <v>3017</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>14957</v>
+        <v>14331</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.02967409157904577</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.01452583869380029</v>
+        <v>0.01148419960528776</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.0569397340765387</v>
+        <v>0.05455819473132408</v>
       </c>
       <c r="J56" s="5" t="n">
         <v>2</v>
@@ -14085,7 +14085,7 @@
         <v>0</v>
       </c>
       <c r="M56" s="5" t="n">
-        <v>10445</v>
+        <v>10802</v>
       </c>
       <c r="N56" s="6" t="n">
         <v>0.01273083396397322</v>
@@ -14094,7 +14094,7 @@
         <v>0</v>
       </c>
       <c r="P56" s="6" t="n">
-        <v>0.0465247823029425</v>
+        <v>0.04811782371406694</v>
       </c>
       <c r="Q56" s="5" t="n">
         <v>10</v>
@@ -14103,19 +14103,19 @@
         <v>10653</v>
       </c>
       <c r="S56" s="5" t="n">
-        <v>5703</v>
+        <v>5716</v>
       </c>
       <c r="T56" s="5" t="n">
-        <v>18832</v>
+        <v>20375</v>
       </c>
       <c r="U56" s="6" t="n">
         <v>0.0218663270843234</v>
       </c>
       <c r="V56" s="6" t="n">
-        <v>0.0117053560367908</v>
+        <v>0.0117337667953249</v>
       </c>
       <c r="W56" s="6" t="n">
-        <v>0.03865477293285204</v>
+        <v>0.04182210717158446</v>
       </c>
     </row>
     <row r="57">
@@ -14210,7 +14210,7 @@
         <v>0</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>4642</v>
+        <v>3504</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.004992077677005729</v>
@@ -14219,7 +14219,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.02800819952181217</v>
+        <v>0.02114276663371934</v>
       </c>
       <c r="J58" s="5" t="n">
         <v>0</v>
@@ -14244,7 +14244,7 @@
         <v>0</v>
       </c>
       <c r="T58" s="5" t="n">
-        <v>4296</v>
+        <v>4868</v>
       </c>
       <c r="U58" s="6" t="n">
         <v>0.002683441752510137</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="W58" s="6" t="n">
-        <v>0.01393348970352474</v>
+        <v>0.01578858325837203</v>
       </c>
     </row>
     <row r="59">
@@ -14273,7 +14273,7 @@
         <v>0</v>
       </c>
       <c r="F59" s="5" t="n">
-        <v>4385</v>
+        <v>3660</v>
       </c>
       <c r="G59" s="6" t="n">
         <v>0.004440037913510355</v>
@@ -14282,7 +14282,7 @@
         <v>0</v>
       </c>
       <c r="I59" s="6" t="n">
-        <v>0.02645474626373639</v>
+        <v>0.02208371571489761</v>
       </c>
       <c r="J59" s="5" t="n">
         <v>0</v>
@@ -14307,7 +14307,7 @@
         <v>0</v>
       </c>
       <c r="T59" s="5" t="n">
-        <v>3766</v>
+        <v>3710</v>
       </c>
       <c r="U59" s="6" t="n">
         <v>0.002386698262874007</v>
@@ -14316,7 +14316,7 @@
         <v>0</v>
       </c>
       <c r="W59" s="6" t="n">
-        <v>0.01221433620393404</v>
+        <v>0.01203069591189466</v>
       </c>
     </row>
     <row r="60">
@@ -14380,19 +14380,19 @@
         <v>132911</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>123038</v>
+        <v>122118</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>140771</v>
+        <v>141372</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.801870713069077</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.7423086827984504</v>
+        <v>0.7367555856166408</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.8492938680878502</v>
+        <v>0.8529197688475247</v>
       </c>
       <c r="J61" s="5" t="n">
         <v>1</v>
@@ -14404,7 +14404,7 @@
         <v>0</v>
       </c>
       <c r="M61" s="5" t="n">
-        <v>6049</v>
+        <v>6009</v>
       </c>
       <c r="N61" s="6" t="n">
         <v>0.00845035492263331</v>
@@ -14413,7 +14413,7 @@
         <v>0</v>
       </c>
       <c r="P61" s="6" t="n">
-        <v>0.04242078911750609</v>
+        <v>0.04213604651277752</v>
       </c>
       <c r="Q61" s="5" t="n">
         <v>159</v>
@@ -14422,19 +14422,19 @@
         <v>134116</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>116807</v>
+        <v>118117</v>
       </c>
       <c r="T61" s="5" t="n">
-        <v>151927</v>
+        <v>152850</v>
       </c>
       <c r="U61" s="6" t="n">
         <v>0.434945584784272</v>
       </c>
       <c r="V61" s="6" t="n">
-        <v>0.3788112762991597</v>
+        <v>0.3830606902280732</v>
       </c>
       <c r="W61" s="6" t="n">
-        <v>0.492706561473358</v>
+        <v>0.4957024415756122</v>
       </c>
     </row>
     <row r="62">
@@ -14451,19 +14451,19 @@
         <v>28729</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>21131</v>
+        <v>21351</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>38629</v>
+        <v>38835</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.1733258808329813</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.1274870919540017</v>
+        <v>0.1288116454655649</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.2330525999269446</v>
+        <v>0.2342953277859909</v>
       </c>
       <c r="J62" s="5" t="n">
         <v>105</v>
@@ -14472,7 +14472,7 @@
         <v>140208</v>
       </c>
       <c r="L62" s="5" t="n">
-        <v>134263</v>
+        <v>134305</v>
       </c>
       <c r="M62" s="5" t="n">
         <v>142600</v>
@@ -14481,7 +14481,7 @@
         <v>0.9832242077198707</v>
       </c>
       <c r="O62" s="6" t="n">
-        <v>0.9415392385123925</v>
+        <v>0.9418301260799923</v>
       </c>
       <c r="P62" s="6" t="n">
         <v>1</v>
@@ -14493,19 +14493,19 @@
         <v>168937</v>
       </c>
       <c r="S62" s="5" t="n">
-        <v>150773</v>
+        <v>150131</v>
       </c>
       <c r="T62" s="5" t="n">
-        <v>185893</v>
+        <v>186317</v>
       </c>
       <c r="U62" s="6" t="n">
         <v>0.5478714094917897</v>
       </c>
       <c r="V62" s="6" t="n">
-        <v>0.4889639900042409</v>
+        <v>0.4868828887557834</v>
       </c>
       <c r="W62" s="6" t="n">
-        <v>0.6028617658584978</v>
+        <v>0.6042353328737882</v>
       </c>
     </row>
     <row r="63">
@@ -14572,7 +14572,7 @@
         <v>0</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>4750</v>
+        <v>4503</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.005416441071670617</v>
@@ -14581,7 +14581,7 @@
         <v>0</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.02865848017124527</v>
+        <v>0.02716457995348484</v>
       </c>
       <c r="J64" s="5" t="n">
         <v>0</v>
@@ -14606,7 +14606,7 @@
         <v>0</v>
       </c>
       <c r="T64" s="5" t="n">
-        <v>4418</v>
+        <v>5283</v>
       </c>
       <c r="U64" s="6" t="n">
         <v>0.002911554078711706</v>
@@ -14615,7 +14615,7 @@
         <v>0</v>
       </c>
       <c r="W64" s="6" t="n">
-        <v>0.01432863573877899</v>
+        <v>0.01713325303614639</v>
       </c>
     </row>
     <row r="65">
@@ -14635,7 +14635,7 @@
         <v>0</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>5062</v>
+        <v>5845</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.00995484943575504</v>
@@ -14644,7 +14644,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.03054270091953494</v>
+        <v>0.03526447997536053</v>
       </c>
       <c r="J65" s="5" t="n">
         <v>1</v>
@@ -14656,7 +14656,7 @@
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>7649</v>
+        <v>6103</v>
       </c>
       <c r="N65" s="6" t="n">
         <v>0.00832543735749592</v>
@@ -14665,7 +14665,7 @@
         <v>0</v>
       </c>
       <c r="P65" s="6" t="n">
-        <v>0.05364059261573341</v>
+        <v>0.04279675213616074</v>
       </c>
       <c r="Q65" s="5" t="n">
         <v>3</v>
@@ -14674,19 +14674,19 @@
         <v>2837</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="T65" s="5" t="n">
-        <v>7665</v>
+        <v>8061</v>
       </c>
       <c r="U65" s="6" t="n">
         <v>0.009201311629842468</v>
       </c>
       <c r="V65" s="6" t="n">
-        <v>0.002511341785313467</v>
+        <v>0.002548477184188831</v>
       </c>
       <c r="W65" s="6" t="n">
-        <v>0.02485901266172267</v>
+        <v>0.02614293317634785</v>
       </c>
     </row>
     <row r="66">
@@ -14778,19 +14778,19 @@
         <v>5362</v>
       </c>
       <c r="E67" s="5" t="n">
-        <v>1928</v>
+        <v>1935</v>
       </c>
       <c r="F67" s="5" t="n">
-        <v>12889</v>
+        <v>13321</v>
       </c>
       <c r="G67" s="6" t="n">
         <v>0.002493107471357523</v>
       </c>
       <c r="H67" s="6" t="n">
-        <v>0.0008962579235907358</v>
+        <v>0.0008997681410496231</v>
       </c>
       <c r="I67" s="6" t="n">
-        <v>0.00599308760911751</v>
+        <v>0.006193954531865276</v>
       </c>
       <c r="J67" s="5" t="n">
         <v>9</v>
@@ -14799,19 +14799,19 @@
         <v>9241</v>
       </c>
       <c r="L67" s="5" t="n">
-        <v>4217</v>
+        <v>4126</v>
       </c>
       <c r="M67" s="5" t="n">
-        <v>16389</v>
+        <v>17029</v>
       </c>
       <c r="N67" s="6" t="n">
         <v>0.004326141223648113</v>
       </c>
       <c r="O67" s="6" t="n">
-        <v>0.001974213826469593</v>
+        <v>0.001931749544581624</v>
       </c>
       <c r="P67" s="6" t="n">
-        <v>0.007672632515781282</v>
+        <v>0.007972130714748718</v>
       </c>
       <c r="Q67" s="5" t="n">
         <v>14</v>
@@ -14820,19 +14820,19 @@
         <v>14603</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>7371</v>
+        <v>8242</v>
       </c>
       <c r="T67" s="5" t="n">
-        <v>23746</v>
+        <v>23978</v>
       </c>
       <c r="U67" s="6" t="n">
         <v>0.003406505578241703</v>
       </c>
       <c r="V67" s="6" t="n">
-        <v>0.001719494523226717</v>
+        <v>0.001922677247412332</v>
       </c>
       <c r="W67" s="6" t="n">
-        <v>0.005539485335631241</v>
+        <v>0.005593456262957902</v>
       </c>
     </row>
     <row r="68">
@@ -14849,19 +14849,19 @@
         <v>17975</v>
       </c>
       <c r="E68" s="5" t="n">
-        <v>9849</v>
+        <v>10849</v>
       </c>
       <c r="F68" s="5" t="n">
-        <v>30840</v>
+        <v>28673</v>
       </c>
       <c r="G68" s="6" t="n">
         <v>0.00835783971029589</v>
       </c>
       <c r="H68" s="6" t="n">
-        <v>0.004579436143611252</v>
+        <v>0.005044545261222178</v>
       </c>
       <c r="I68" s="6" t="n">
-        <v>0.01433984759436127</v>
+        <v>0.01333221745998971</v>
       </c>
       <c r="J68" s="5" t="n">
         <v>22</v>
@@ -14870,19 +14870,19 @@
         <v>22685</v>
       </c>
       <c r="L68" s="5" t="n">
-        <v>14464</v>
+        <v>14959</v>
       </c>
       <c r="M68" s="5" t="n">
-        <v>33219</v>
+        <v>33263</v>
       </c>
       <c r="N68" s="6" t="n">
         <v>0.01061977838937616</v>
       </c>
       <c r="O68" s="6" t="n">
-        <v>0.006771072333157828</v>
+        <v>0.007002998239836095</v>
       </c>
       <c r="P68" s="6" t="n">
-        <v>0.01555139035026074</v>
+        <v>0.01557174761669336</v>
       </c>
       <c r="Q68" s="5" t="n">
         <v>37</v>
@@ -14891,19 +14891,19 @@
         <v>40660</v>
       </c>
       <c r="S68" s="5" t="n">
-        <v>28856</v>
+        <v>28206</v>
       </c>
       <c r="T68" s="5" t="n">
-        <v>55437</v>
+        <v>55324</v>
       </c>
       <c r="U68" s="6" t="n">
         <v>0.00948496053105451</v>
       </c>
       <c r="V68" s="6" t="n">
-        <v>0.006731481334904696</v>
+        <v>0.006579897095882683</v>
       </c>
       <c r="W68" s="6" t="n">
-        <v>0.0129320882138646</v>
+        <v>0.01290576434562331</v>
       </c>
     </row>
     <row r="69">
@@ -14920,19 +14920,19 @@
         <v>17093</v>
       </c>
       <c r="E69" s="5" t="n">
-        <v>9988</v>
+        <v>10070</v>
       </c>
       <c r="F69" s="5" t="n">
-        <v>26062</v>
+        <v>26907</v>
       </c>
       <c r="G69" s="6" t="n">
         <v>0.007947667239959377</v>
       </c>
       <c r="H69" s="6" t="n">
-        <v>0.004643968216645241</v>
+        <v>0.004682219733140357</v>
       </c>
       <c r="I69" s="6" t="n">
-        <v>0.01211826310989493</v>
+        <v>0.01251076395367242</v>
       </c>
       <c r="J69" s="5" t="n">
         <v>5</v>
@@ -14941,19 +14941,19 @@
         <v>5327</v>
       </c>
       <c r="L69" s="5" t="n">
-        <v>1857</v>
+        <v>1869</v>
       </c>
       <c r="M69" s="5" t="n">
-        <v>11645</v>
+        <v>11619</v>
       </c>
       <c r="N69" s="6" t="n">
         <v>0.002493965451929823</v>
       </c>
       <c r="O69" s="6" t="n">
-        <v>0.0008694483391149319</v>
+        <v>0.0008750976410441281</v>
       </c>
       <c r="P69" s="6" t="n">
-        <v>0.005451685198724311</v>
+        <v>0.005439293805320501</v>
       </c>
       <c r="Q69" s="5" t="n">
         <v>22</v>
@@ -14962,19 +14962,19 @@
         <v>22420</v>
       </c>
       <c r="S69" s="5" t="n">
-        <v>14785</v>
+        <v>13813</v>
       </c>
       <c r="T69" s="5" t="n">
-        <v>35183</v>
+        <v>33015</v>
       </c>
       <c r="U69" s="6" t="n">
         <v>0.005230095409941398</v>
       </c>
       <c r="V69" s="6" t="n">
-        <v>0.003448971249372212</v>
+        <v>0.003222307991518739</v>
       </c>
       <c r="W69" s="6" t="n">
-        <v>0.008207402696671084</v>
+        <v>0.007701625674314967</v>
       </c>
     </row>
     <row r="70">
@@ -14991,19 +14991,19 @@
         <v>977852</v>
       </c>
       <c r="E70" s="5" t="n">
-        <v>929370</v>
+        <v>934398</v>
       </c>
       <c r="F70" s="5" t="n">
-        <v>1022995</v>
+        <v>1028150</v>
       </c>
       <c r="G70" s="6" t="n">
         <v>0.4546733230012605</v>
       </c>
       <c r="H70" s="6" t="n">
-        <v>0.4321304208675604</v>
+        <v>0.4344686229171631</v>
       </c>
       <c r="I70" s="6" t="n">
-        <v>0.4756637406828053</v>
+        <v>0.4780606162440825</v>
       </c>
       <c r="J70" s="5" t="n">
         <v>3</v>
@@ -15012,19 +15012,19 @@
         <v>3294</v>
       </c>
       <c r="L70" s="5" t="n">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="M70" s="5" t="n">
-        <v>8916</v>
+        <v>8919</v>
       </c>
       <c r="N70" s="6" t="n">
         <v>0.001542121025385774</v>
       </c>
       <c r="O70" s="6" t="n">
-        <v>0.0004684559130108996</v>
+        <v>0.0004688968827488362</v>
       </c>
       <c r="P70" s="6" t="n">
-        <v>0.004173982280063734</v>
+        <v>0.004175309455147776</v>
       </c>
       <c r="Q70" s="5" t="n">
         <v>950</v>
@@ -15033,19 +15033,19 @@
         <v>981146</v>
       </c>
       <c r="S70" s="5" t="n">
-        <v>930639</v>
+        <v>920814</v>
       </c>
       <c r="T70" s="5" t="n">
-        <v>1043937</v>
+        <v>1040755</v>
       </c>
       <c r="U70" s="6" t="n">
         <v>0.2288786907214598</v>
       </c>
       <c r="V70" s="6" t="n">
-        <v>0.2170964802605237</v>
+        <v>0.2148046735859307</v>
       </c>
       <c r="W70" s="6" t="n">
-        <v>0.2435262796749629</v>
+        <v>0.2427842125668963</v>
       </c>
     </row>
     <row r="71">
@@ -15062,19 +15062,19 @@
         <v>92846</v>
       </c>
       <c r="E71" s="5" t="n">
-        <v>75424</v>
+        <v>75683</v>
       </c>
       <c r="F71" s="5" t="n">
-        <v>111683</v>
+        <v>113727</v>
       </c>
       <c r="G71" s="6" t="n">
         <v>0.04317057984401987</v>
       </c>
       <c r="H71" s="6" t="n">
-        <v>0.03506982678675559</v>
+        <v>0.03519066373179643</v>
       </c>
       <c r="I71" s="6" t="n">
-        <v>0.05192939566184343</v>
+        <v>0.05288001209956741</v>
       </c>
       <c r="J71" s="5" t="n">
         <v>497</v>
@@ -15083,19 +15083,19 @@
         <v>569431</v>
       </c>
       <c r="L71" s="5" t="n">
-        <v>525584</v>
+        <v>527924</v>
       </c>
       <c r="M71" s="5" t="n">
-        <v>614088</v>
+        <v>616917</v>
       </c>
       <c r="N71" s="6" t="n">
         <v>0.2665770958739195</v>
       </c>
       <c r="O71" s="6" t="n">
-        <v>0.2460506651054262</v>
+        <v>0.2471459892237235</v>
       </c>
       <c r="P71" s="6" t="n">
-        <v>0.2874834871653188</v>
+        <v>0.2888078542480632</v>
       </c>
       <c r="Q71" s="5" t="n">
         <v>593</v>
@@ -15104,19 +15104,19 @@
         <v>662276</v>
       </c>
       <c r="S71" s="5" t="n">
-        <v>609007</v>
+        <v>610984</v>
       </c>
       <c r="T71" s="5" t="n">
-        <v>709665</v>
+        <v>705168</v>
       </c>
       <c r="U71" s="6" t="n">
         <v>0.1544937284506971</v>
       </c>
       <c r="V71" s="6" t="n">
-        <v>0.142067277098117</v>
+        <v>0.1425284024910825</v>
       </c>
       <c r="W71" s="6" t="n">
-        <v>0.1655485529220797</v>
+        <v>0.1644995188433638</v>
       </c>
     </row>
     <row r="72">
@@ -15133,19 +15133,19 @@
         <v>2795</v>
       </c>
       <c r="E72" s="5" t="n">
-        <v>888</v>
+        <v>890</v>
       </c>
       <c r="F72" s="5" t="n">
-        <v>7624</v>
+        <v>7128</v>
       </c>
       <c r="G72" s="6" t="n">
         <v>0.001299624657564673</v>
       </c>
       <c r="H72" s="6" t="n">
-        <v>0.0004128262967144514</v>
+        <v>0.0004140562869450342</v>
       </c>
       <c r="I72" s="6" t="n">
-        <v>0.003544868360635685</v>
+        <v>0.003314245969641257</v>
       </c>
       <c r="J72" s="5" t="n">
         <v>4</v>
@@ -15154,19 +15154,19 @@
         <v>3921</v>
       </c>
       <c r="L72" s="5" t="n">
-        <v>1002</v>
+        <v>1004</v>
       </c>
       <c r="M72" s="5" t="n">
-        <v>9075</v>
+        <v>9909</v>
       </c>
       <c r="N72" s="6" t="n">
         <v>0.001835413939488852</v>
       </c>
       <c r="O72" s="6" t="n">
-        <v>0.0004691775654663936</v>
+        <v>0.0004698333219001534</v>
       </c>
       <c r="P72" s="6" t="n">
-        <v>0.004248457443698966</v>
+        <v>0.004638823886821234</v>
       </c>
       <c r="Q72" s="5" t="n">
         <v>7</v>
@@ -15175,19 +15175,19 @@
         <v>6716</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>2896</v>
+        <v>2988</v>
       </c>
       <c r="T72" s="5" t="n">
-        <v>13034</v>
+        <v>13481</v>
       </c>
       <c r="U72" s="6" t="n">
         <v>0.001566607693303557</v>
       </c>
       <c r="V72" s="6" t="n">
-        <v>0.0006755044625471834</v>
+        <v>0.0006969757958055286</v>
       </c>
       <c r="W72" s="6" t="n">
-        <v>0.003040511549582874</v>
+        <v>0.003144744697703955</v>
       </c>
     </row>
     <row r="73">
@@ -15204,19 +15204,19 @@
         <v>338268</v>
       </c>
       <c r="E73" s="5" t="n">
-        <v>303608</v>
+        <v>307427</v>
       </c>
       <c r="F73" s="5" t="n">
-        <v>372933</v>
+        <v>375372</v>
       </c>
       <c r="G73" s="6" t="n">
         <v>0.157284839976344</v>
       </c>
       <c r="H73" s="6" t="n">
-        <v>0.1411689508268774</v>
+        <v>0.1429448964988224</v>
       </c>
       <c r="I73" s="6" t="n">
-        <v>0.1734030458285711</v>
+        <v>0.1745375056713813</v>
       </c>
       <c r="J73" s="5" t="n">
         <v>299</v>
@@ -15225,19 +15225,19 @@
         <v>308383</v>
       </c>
       <c r="L73" s="5" t="n">
-        <v>277796</v>
+        <v>278752</v>
       </c>
       <c r="M73" s="5" t="n">
-        <v>343272</v>
+        <v>340802</v>
       </c>
       <c r="N73" s="6" t="n">
         <v>0.144368342220517</v>
       </c>
       <c r="O73" s="6" t="n">
-        <v>0.1300491543441843</v>
+        <v>0.1304970465069733</v>
       </c>
       <c r="P73" s="6" t="n">
-        <v>0.1607016337861639</v>
+        <v>0.1595452251918121</v>
       </c>
       <c r="Q73" s="5" t="n">
         <v>616</v>
@@ -15246,19 +15246,19 @@
         <v>646650</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>598862</v>
+        <v>600682</v>
       </c>
       <c r="T73" s="5" t="n">
-        <v>694547</v>
+        <v>696804</v>
       </c>
       <c r="U73" s="6" t="n">
         <v>0.1508485675492797</v>
       </c>
       <c r="V73" s="6" t="n">
-        <v>0.1397007549337159</v>
+        <v>0.1401253129654793</v>
       </c>
       <c r="W73" s="6" t="n">
-        <v>0.1620216862813611</v>
+        <v>0.1625482544545543</v>
       </c>
     </row>
     <row r="74">
@@ -15275,19 +15275,19 @@
         <v>698479</v>
       </c>
       <c r="E74" s="5" t="n">
-        <v>651919</v>
+        <v>656505</v>
       </c>
       <c r="F74" s="5" t="n">
-        <v>742718</v>
+        <v>743606</v>
       </c>
       <c r="G74" s="6" t="n">
         <v>0.3247730180991982</v>
       </c>
       <c r="H74" s="6" t="n">
-        <v>0.3031236836872008</v>
+        <v>0.3052562169087615</v>
       </c>
       <c r="I74" s="6" t="n">
-        <v>0.3453425780310777</v>
+        <v>0.3457556902923539</v>
       </c>
       <c r="J74" s="5" t="n">
         <v>1182</v>
@@ -15296,19 +15296,19 @@
         <v>1213801</v>
       </c>
       <c r="L74" s="5" t="n">
-        <v>1163659</v>
+        <v>1168808</v>
       </c>
       <c r="M74" s="5" t="n">
-        <v>1254777</v>
+        <v>1262295</v>
       </c>
       <c r="N74" s="6" t="n">
         <v>0.5682371418757347</v>
       </c>
       <c r="O74" s="6" t="n">
-        <v>0.5447634651753281</v>
+        <v>0.5471738881026132</v>
       </c>
       <c r="P74" s="6" t="n">
-        <v>0.5874198903327404</v>
+        <v>0.5909393168679099</v>
       </c>
       <c r="Q74" s="5" t="n">
         <v>1822</v>
@@ -15317,19 +15317,19 @@
         <v>1912280</v>
       </c>
       <c r="S74" s="5" t="n">
-        <v>1844612</v>
+        <v>1850190</v>
       </c>
       <c r="T74" s="5" t="n">
-        <v>1983348</v>
+        <v>1978384</v>
       </c>
       <c r="U74" s="6" t="n">
         <v>0.4460908440660222</v>
       </c>
       <c r="V74" s="6" t="n">
-        <v>0.4303052864175293</v>
+        <v>0.4316066904918829</v>
       </c>
       <c r="W74" s="6" t="n">
-        <v>0.4626692838599746</v>
+        <v>0.4615112664800907</v>
       </c>
     </row>
     <row r="75">
